--- a/Documents/RDBES Data Model CS.xlsx
+++ b/Documents/RDBES Data Model CS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5A2AC1-CF5B-4B5B-9534-876832A6CDD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00842E-5842-4589-A529-A7F925A733CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="14400" windowHeight="5595" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="14400" windowHeight="5595" tabRatio="781" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.19.10" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1316">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -3404,9 +3404,6 @@
   </si>
   <si>
     <t>The measured measurement type of the e.g. total length, measured weight, carapace length.</t>
-  </si>
-  <si>
-    <t>The measurement type of the class needed for assessment e.g. total length, live weight, carapace length.</t>
   </si>
   <si>
     <t>BVpresentation</t>
@@ -4989,7 +4986,7 @@
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="103" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D2" s="19"/>
       <c r="L2" s="17"/>
@@ -7198,7 +7195,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7644,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7689,7 +7686,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -8416,7 +8413,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -9519,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>918</v>
@@ -9571,7 +9568,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>1037</v>
@@ -9640,10 +9637,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N14" s="100"/>
     </row>
@@ -9655,7 +9652,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>752</v>
@@ -9672,10 +9669,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M15" s="35" t="s">
         <v>1223</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>1224</v>
       </c>
       <c r="N15" s="51"/>
     </row>
@@ -9705,7 +9702,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>260</v>
@@ -9723,7 +9720,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>360</v>
@@ -9773,7 +9770,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>824</v>
@@ -9809,7 +9806,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>152</v>
@@ -9845,7 +9842,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>238</v>
@@ -9863,13 +9860,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>10</v>
@@ -9879,7 +9876,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>91</v>
@@ -9899,13 +9896,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>1173</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>1174</v>
-      </c>
       <c r="G22" s="35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>10</v>
@@ -9945,7 +9942,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>77</v>
@@ -9981,7 +9978,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>1015</v>
@@ -10063,7 +10060,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>921</v>
@@ -10081,7 +10078,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>858</v>
@@ -10117,7 +10114,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>864</v>
@@ -10153,7 +10150,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>1016</v>
@@ -10189,7 +10186,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>1011</v>
@@ -10225,7 +10222,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L31" s="34" t="s">
         <v>1017</v>
@@ -10261,7 +10258,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L32" s="35" t="s">
         <v>1018</v>
@@ -10297,7 +10294,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>865</v>
@@ -10333,7 +10330,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>866</v>
@@ -10369,7 +10366,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>867</v>
@@ -10437,10 +10434,10 @@
         <v>14</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L37" s="104" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M37" s="35" t="s">
         <v>35</v>
@@ -10472,7 +10469,7 @@
       <c r="J38" s="35"/>
       <c r="K38" s="35"/>
       <c r="L38" s="104" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M38" s="35" t="s">
         <v>135</v>
@@ -10505,7 +10502,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>93</v>
@@ -10541,10 +10538,10 @@
         <v>14</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="66"/>
@@ -10587,7 +10584,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>818</v>
@@ -10619,7 +10616,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>772</v>
@@ -10733,7 +10730,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>161</v>
@@ -10783,7 +10780,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>339</v>
@@ -10801,7 +10798,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>522</v>
@@ -10819,7 +10816,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>819</v>
@@ -10851,7 +10848,7 @@
         <v>41</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>773</v>
@@ -10963,7 +10960,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L53" s="35" t="s">
         <v>692</v>
@@ -10996,7 +10993,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>253</v>
@@ -27934,7 +27931,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>1037</v>
@@ -27953,7 +27950,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>753</v>
@@ -27970,7 +27967,7 @@
       <c r="J12" s="49"/>
       <c r="K12" s="35"/>
       <c r="L12" s="109" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>118</v>
@@ -28004,7 +28001,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>260</v>
@@ -28023,7 +28020,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>363</v>
@@ -28058,7 +28055,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>956</v>
@@ -28076,13 +28073,13 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L15" s="35" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M15" s="35" t="s">
         <v>1240</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>1241</v>
       </c>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -28097,7 +28094,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F16" s="56" t="s">
         <v>682</v>
@@ -28113,7 +28110,7 @@
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L16" s="70" t="s">
         <v>871</v>
@@ -28134,7 +28131,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>955</v>
@@ -28152,10 +28149,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="M17" s="70" t="s">
         <v>561</v>
@@ -28189,7 +28186,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>824</v>
@@ -28208,7 +28205,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>957</v>
@@ -28243,7 +28240,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>589</v>
@@ -28261,7 +28258,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L20" s="49" t="s">
         <v>587</v>
@@ -28278,13 +28275,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="109" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G21" s="109" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H21" s="109" t="s">
         <v>13</v>
@@ -28295,7 +28292,7 @@
       <c r="J21" s="104"/>
       <c r="K21" s="106"/>
       <c r="L21" s="109" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M21" s="109"/>
       <c r="N21" s="51"/>
@@ -28309,13 +28306,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F22" s="109" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G22" s="109" t="s">
         <v>1249</v>
-      </c>
-      <c r="G22" s="109" t="s">
-        <v>1250</v>
       </c>
       <c r="H22" s="109" t="s">
         <v>13</v>
@@ -28326,7 +28323,7 @@
       <c r="J22" s="104"/>
       <c r="K22" s="106"/>
       <c r="L22" s="109" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M22" s="109"/>
       <c r="N22" s="51"/>
@@ -28340,7 +28337,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>820</v>
@@ -28373,7 +28370,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>774</v>
@@ -28472,7 +28469,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F27" s="56" t="s">
         <v>411</v>
@@ -28490,7 +28487,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>209</v>
@@ -28542,7 +28539,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>343</v>
@@ -28560,7 +28557,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>522</v>
@@ -28579,7 +28576,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>821</v>
@@ -28612,7 +28609,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>775</v>
@@ -28727,7 +28724,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>692</v>
@@ -28760,7 +28757,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>253</v>
@@ -29124,7 +29121,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>670</v>
@@ -29182,7 +29179,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>1037</v>
@@ -29225,7 +29222,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>97</v>
@@ -29268,7 +29265,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>581</v>
@@ -29314,7 +29311,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>986</v>
@@ -29343,10 +29340,10 @@
         <v>1067</v>
       </c>
       <c r="F11" s="56" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>1229</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1230</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -29358,7 +29355,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>1069</v>
@@ -29393,7 +29390,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="104" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>1071</v>
@@ -29410,7 +29407,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>558</v>
@@ -29428,7 +29425,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="L13" s="86" t="s">
         <v>873</v>
@@ -29456,7 +29453,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>546</v>
@@ -29474,7 +29471,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L14" s="86" t="s">
         <v>694</v>
@@ -29520,7 +29517,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>829</v>
@@ -29566,7 +29563,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>171</v>
@@ -29612,7 +29609,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>19</v>
@@ -29658,7 +29655,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>1019</v>
@@ -29684,7 +29681,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F19" s="94" t="s">
         <v>853</v>
@@ -29702,7 +29699,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L19" s="95" t="s">
         <v>830</v>
@@ -29746,7 +29743,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>710</v>
@@ -29790,7 +29787,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>1020</v>
@@ -29834,7 +29831,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>1011</v>
@@ -29878,7 +29875,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>1012</v>
@@ -29896,7 +29893,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="93.75" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -29922,7 +29919,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>1021</v>
@@ -29966,7 +29963,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>711</v>
@@ -30010,7 +30007,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>712</v>
@@ -30054,7 +30051,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>713</v>
@@ -30138,10 +30135,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L29" s="106" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>35</v>
@@ -30181,7 +30178,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="104" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>135</v>
@@ -30196,7 +30193,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30222,7 +30219,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>680</v>
@@ -30248,7 +30245,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>536</v>
@@ -30288,7 +30285,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>535</v>
@@ -30328,7 +30325,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>822</v>
@@ -30368,7 +30365,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>776</v>
@@ -30506,7 +30503,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>178</v>
@@ -30572,7 +30569,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>513</v>
@@ -30590,7 +30587,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>179</v>
@@ -30634,10 +30631,10 @@
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>1315</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>1316</v>
       </c>
       <c r="M41" s="12" t="s">
         <v>612</v>
@@ -30678,7 +30675,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>692</v>
@@ -30711,7 +30708,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>684</v>
@@ -30755,7 +30752,7 @@
         <v>14</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>685</v>
@@ -30781,7 +30778,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>530</v>
@@ -30821,7 +30818,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>531</v>
@@ -30853,7 +30850,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -30861,13 +30858,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F47" s="56" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G47" s="56" t="s">
         <v>1226</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>1227</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>146</v>
@@ -31227,8 +31224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31391,7 +31388,7 @@
     <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="52">
@@ -31401,10 +31398,10 @@
         <v>1067</v>
       </c>
       <c r="F5" s="56" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>1231</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>1232</v>
       </c>
       <c r="H5" s="56" t="s">
         <v>10</v>
@@ -31416,10 +31413,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="M5" s="35" t="s">
         <v>1067</v>
@@ -31428,7 +31425,7 @@
     <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="52">
@@ -31453,7 +31450,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="104" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1070</v>
@@ -31561,7 +31558,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>1087</v>
@@ -31573,7 +31570,7 @@
     <row r="10" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="52">
@@ -31583,10 +31580,10 @@
         <v>195</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -31598,7 +31595,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>195</v>
@@ -31633,7 +31630,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>555</v>
@@ -31668,7 +31665,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>244</v>
@@ -31680,7 +31677,7 @@
     <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="101"/>
       <c r="B13" s="56" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="52">
@@ -31693,7 +31690,7 @@
         <v>1081</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>1083</v>
@@ -31710,10 +31707,10 @@
       </c>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" s="23" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="101"/>
       <c r="B14" s="56" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="52">
@@ -31726,7 +31723,7 @@
         <v>1084</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>10</v>
@@ -31738,10 +31735,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1304</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>1088</v>
+        <v>1303</v>
+      </c>
+      <c r="L14" s="108" t="s">
+        <v>1241</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -31771,7 +31768,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>824</v>
@@ -31835,7 +31832,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L17" s="102" t="s">
         <v>1072</v>
@@ -31853,8 +31850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32100,10 +32097,10 @@
         <v>1067</v>
       </c>
       <c r="F7" s="56" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>1233</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>1234</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>10</v>
@@ -32115,10 +32112,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>1067</v>
@@ -32137,10 +32134,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>1089</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>1090</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>10</v>
@@ -32152,7 +32149,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="104" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>1070</v>
@@ -32187,7 +32184,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>257</v>
@@ -32204,7 +32201,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>755</v>
@@ -32237,13 +32234,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F11" s="56" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>1092</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1093</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -32255,7 +32252,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>875</v>
@@ -32272,13 +32269,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F12" s="56" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>1094</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>1095</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>10</v>
@@ -32303,7 +32300,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>1024</v>
@@ -32321,7 +32318,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>1026</v>
@@ -32356,7 +32353,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>190</v>
@@ -32391,7 +32388,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>555</v>
@@ -32428,7 +32425,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>1030</v>
@@ -32463,7 +32460,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>1034</v>
@@ -32483,10 +32480,10 @@
         <v>1035</v>
       </c>
       <c r="F18" s="56" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>1194</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>1195</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>146</v>
@@ -32514,13 +32511,13 @@
         <v>1082</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>11</v>
@@ -32528,7 +32525,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M19" s="35"/>
     </row>
@@ -32545,10 +32542,10 @@
         <v>1085</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>10</v>
@@ -32560,10 +32557,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L20" s="108" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -32575,7 +32572,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>823</v>
@@ -32606,7 +32603,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>777</v>
@@ -32717,7 +32714,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>194</v>
@@ -32783,7 +32780,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>824</v>
@@ -32802,8 +32799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32959,10 +32956,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>106</v>
@@ -32994,13 +32991,13 @@
         <v>14</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>1000</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -33031,7 +33028,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>63</v>
@@ -33050,7 +33047,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>745</v>
@@ -33081,7 +33078,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>300</v>
@@ -33099,7 +33096,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>246</v>
@@ -33136,7 +33133,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>110</v>
@@ -33156,10 +33153,10 @@
         <v>686</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -33171,10 +33168,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="M10" s="34"/>
     </row>
@@ -33189,10 +33186,10 @@
         <v>253</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -33204,7 +33201,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>253</v>
@@ -34068,7 +34065,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>257</v>
@@ -34105,7 +34102,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>200</v>
@@ -34122,7 +34119,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>746</v>
@@ -34139,7 +34136,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>118</v>
@@ -34153,7 +34150,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>313</v>
@@ -34171,7 +34168,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>260</v>
@@ -34188,7 +34185,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>314</v>
@@ -34237,7 +34234,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>824</v>
@@ -34254,7 +34251,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>808</v>
@@ -34285,7 +34282,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>756</v>
@@ -34396,7 +34393,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>199</v>
@@ -34444,7 +34441,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>318</v>
@@ -34462,7 +34459,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L20" s="57" t="s">
         <v>522</v>
@@ -34479,7 +34476,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>807</v>
@@ -34510,7 +34507,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>757</v>
@@ -34619,7 +34616,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>692</v>
@@ -34652,7 +34649,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>253</v>
@@ -34914,7 +34911,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1037</v>
@@ -34931,7 +34928,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>933</v>
@@ -34949,7 +34946,7 @@
         <v>90</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>628</v>
@@ -34966,13 +34963,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>1175</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>1176</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -34998,13 +34995,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>10</v>
@@ -35016,10 +35013,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="M9" s="59"/>
     </row>
@@ -35048,7 +35045,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>1049</v>
@@ -35080,7 +35077,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>260</v>
@@ -35097,7 +35094,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>348</v>
@@ -35146,7 +35143,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>824</v>
@@ -35163,7 +35160,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>809</v>
@@ -35194,7 +35191,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>758</v>
@@ -35305,7 +35302,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>199</v>
@@ -35353,7 +35350,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>322</v>
@@ -35371,7 +35368,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>522</v>
@@ -35388,7 +35385,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>810</v>
@@ -35419,7 +35416,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>759</v>
@@ -35528,7 +35525,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>692</v>
@@ -35561,7 +35558,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>253</v>
@@ -35821,7 +35818,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>1005</v>
@@ -35858,7 +35855,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>53</v>
@@ -36156,7 +36153,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>577</v>
@@ -36207,7 +36204,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>1037</v>
@@ -36224,7 +36221,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>748</v>
@@ -36241,7 +36238,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>1049</v>
@@ -36273,7 +36270,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>260</v>
@@ -36290,7 +36287,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>351</v>
@@ -36339,7 +36336,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>824</v>
@@ -36356,7 +36353,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>688</v>
@@ -36387,7 +36384,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>691</v>
@@ -36498,7 +36495,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>120</v>
@@ -36546,7 +36543,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>326</v>
@@ -36564,7 +36561,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>522</v>
@@ -36581,7 +36578,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>811</v>
@@ -36612,7 +36609,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>760</v>
@@ -36721,7 +36718,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>692</v>
@@ -36754,7 +36751,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>253</v>
@@ -37140,7 +37137,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>847</v>
@@ -37222,7 +37219,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>1037</v>
@@ -37239,7 +37236,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>749</v>
@@ -37256,7 +37253,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>118</v>
@@ -37270,7 +37267,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>277</v>
@@ -37288,7 +37285,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>260</v>
@@ -37305,7 +37302,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>278</v>
@@ -37354,7 +37351,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>824</v>
@@ -37389,13 +37386,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="104" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -37406,10 +37403,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>1202</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>1203</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>288</v>
@@ -37425,10 +37422,10 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M18" s="35" t="s">
         <v>1204</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>1205</v>
       </c>
       <c r="N18" s="100"/>
     </row>
@@ -37458,13 +37455,13 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37523,10 +37520,10 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M21" s="35" t="s">
         <v>1207</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37557,7 +37554,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>125</v>
@@ -37576,7 +37573,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>248</v>
@@ -37624,10 +37621,10 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M24" s="35" t="s">
         <v>1210</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37638,7 +37635,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>812</v>
@@ -37669,7 +37666,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>766</v>
@@ -37780,7 +37777,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>560</v>
@@ -37828,7 +37825,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>285</v>
@@ -37844,7 +37841,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>522</v>
@@ -37861,7 +37858,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>813</v>
@@ -37892,7 +37889,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>767</v>
@@ -38001,7 +37998,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>692</v>
@@ -38034,7 +38031,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>253</v>
@@ -38348,7 +38345,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1037</v>
@@ -38398,7 +38395,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>750</v>
@@ -38415,7 +38412,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>118</v>
@@ -38448,7 +38445,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>260</v>
@@ -38466,7 +38463,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>354</v>
@@ -38516,7 +38513,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>824</v>
@@ -38552,7 +38549,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>70</v>
@@ -38588,7 +38585,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>132</v>
@@ -38624,7 +38621,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>681</v>
@@ -38642,7 +38639,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>447</v>
@@ -38674,7 +38671,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>448</v>
@@ -38706,7 +38703,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>449</v>
@@ -38723,10 +38720,10 @@
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="N17" s="89"/>
     </row>
@@ -38738,7 +38735,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>450</v>
@@ -38755,10 +38752,10 @@
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="N18" s="89"/>
     </row>
@@ -38787,10 +38784,10 @@
       <c r="J19" s="34"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M19" s="35" t="s">
         <v>1214</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>1215</v>
       </c>
       <c r="N19" s="89"/>
     </row>
@@ -38822,13 +38819,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="N20" s="89"/>
     </row>
@@ -39002,7 +38999,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>855</v>
@@ -39020,7 +39017,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>857</v>
@@ -39056,7 +39053,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>861</v>
@@ -39092,7 +39089,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>1010</v>
@@ -39128,7 +39125,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>1011</v>
@@ -39164,7 +39161,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>1012</v>
@@ -39182,7 +39179,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>464</v>
@@ -39199,7 +39196,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>138</v>
@@ -39214,7 +39211,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>466</v>
@@ -39264,7 +39261,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>1013</v>
@@ -39300,7 +39297,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>610</v>
@@ -39336,7 +39333,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>611</v>
@@ -39372,7 +39369,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>76</v>
@@ -39440,13 +39437,13 @@
         <v>14</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L38" s="104" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N38" s="89"/>
     </row>
@@ -39475,7 +39472,7 @@
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
       <c r="L39" s="108" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M39" s="35" t="s">
         <v>135</v>
@@ -39508,7 +39505,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>94</v>
@@ -39525,13 +39522,13 @@
         <v>37</v>
       </c>
       <c r="E41" s="34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>1219</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>1220</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>1221</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>10</v>
@@ -39543,10 +39540,10 @@
         <v>14</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M41" s="35" t="s">
         <v>1060</v>
@@ -39581,10 +39578,10 @@
         <v>14</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M42" s="35" t="s">
         <v>1051</v>
@@ -39619,10 +39616,10 @@
         <v>14</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="M43" s="35" t="s">
         <v>1061</v>
@@ -39657,13 +39654,13 @@
         <v>14</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L44" s="35" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M44" s="35" t="s">
         <v>1169</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>1170</v>
       </c>
       <c r="N44" s="96"/>
     </row>
@@ -39704,7 +39701,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>564</v>
@@ -39722,7 +39719,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>832</v>
@@ -39739,7 +39736,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>814</v>
@@ -39770,7 +39767,7 @@
         <v>44</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>768</v>
@@ -39881,7 +39878,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>136</v>
@@ -39929,7 +39926,7 @@
         <v>49</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>330</v>
@@ -39945,7 +39942,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>522</v>
@@ -39962,7 +39959,7 @@
         <v>50</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>815</v>
@@ -39993,7 +39990,7 @@
         <v>51</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>769</v>
@@ -40102,7 +40099,7 @@
         <v>14</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L58" s="12" t="s">
         <v>692</v>
@@ -40136,7 +40133,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>253</v>
@@ -40476,7 +40473,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1037</v>
@@ -40495,7 +40492,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>625</v>
@@ -40513,7 +40510,7 @@
         <v>629</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>628</v>
@@ -40534,13 +40531,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F8" s="34" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>1180</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>1181</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>10</v>
@@ -40566,7 +40563,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>430</v>
@@ -40584,7 +40581,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>149</v>
@@ -40667,7 +40664,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>751</v>
@@ -40684,7 +40681,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>118</v>
@@ -40716,7 +40713,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>260</v>
@@ -40733,7 +40730,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>357</v>
@@ -40782,7 +40779,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>824</v>
@@ -40817,7 +40814,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>144</v>
@@ -40834,7 +40831,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>428</v>
@@ -40865,7 +40862,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>816</v>
@@ -40896,7 +40893,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>770</v>
@@ -41007,7 +41004,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>148</v>
@@ -41055,7 +41052,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>334</v>
@@ -41073,7 +41070,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>522</v>
@@ -41090,7 +41087,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>817</v>
@@ -41121,7 +41118,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>771</v>
@@ -41230,7 +41227,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>1003</v>
@@ -41263,7 +41260,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>253</v>
@@ -41283,15 +41280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41301,6 +41289,15 @@
     </TaxKeywordTaxHTField>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41476,14 +41473,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -41495,6 +41484,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/RDBES Data Model CS.xlsx
+++ b/Documents/RDBES Data Model CS.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE593B9-6090-4F8B-8B67-D4A42F5FCD80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF778BF-7E90-4919-9C25-C318A804330B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="14400" windowHeight="5595" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="14400" windowHeight="5595" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.12" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.13" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="1328">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -3389,9 +3389,6 @@
   </si>
   <si>
     <t>Measurement type for assessment</t>
-  </si>
-  <si>
-    <t>The conversion factor needed for the conversion from the measured type to the assessment type. If no conversion then this is equal to 1.</t>
   </si>
   <si>
     <t>The measured measurement type of the e.g. total length, measured weight, carapace length.</t>
@@ -4148,7 +4145,10 @@
     <t>0.001 - 1</t>
   </si>
   <si>
-    <t>0.0000000000000001 - 1</t>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>The conversion factor needed for the conversion from the measured type to the assessment type. If no conversion then set it to 1.</t>
   </si>
 </sst>
 </file>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="103" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D2" s="19"/>
       <c r="L2" s="17"/>
@@ -7242,7 +7242,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7733,7 +7733,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -8460,7 +8460,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -9563,7 +9563,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>916</v>
@@ -9615,7 +9615,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>1035</v>
@@ -9684,10 +9684,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N14" s="100"/>
     </row>
@@ -9699,7 +9699,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>750</v>
@@ -9716,10 +9716,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M15" s="35" t="s">
         <v>1219</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>1220</v>
       </c>
       <c r="N15" s="51"/>
     </row>
@@ -9749,7 +9749,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>258</v>
@@ -9767,7 +9767,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>358</v>
@@ -9817,7 +9817,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>822</v>
@@ -9853,7 +9853,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>150</v>
@@ -9889,7 +9889,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>236</v>
@@ -9907,13 +9907,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>10</v>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>90</v>
@@ -9943,13 +9943,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="35" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>1169</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>1170</v>
-      </c>
       <c r="G22" s="35" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>10</v>
@@ -9989,7 +9989,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>76</v>
@@ -10025,7 +10025,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>1013</v>
@@ -10107,7 +10107,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>919</v>
@@ -10125,7 +10125,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>856</v>
@@ -10161,7 +10161,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>862</v>
@@ -10197,7 +10197,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>1014</v>
@@ -10233,7 +10233,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>1009</v>
@@ -10269,7 +10269,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L31" s="34" t="s">
         <v>1015</v>
@@ -10305,7 +10305,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L32" s="35" t="s">
         <v>1016</v>
@@ -10341,7 +10341,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>863</v>
@@ -10377,7 +10377,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>864</v>
@@ -10413,7 +10413,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>865</v>
@@ -10481,10 +10481,10 @@
         <v>14</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L37" s="104" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M37" s="35" t="s">
         <v>34</v>
@@ -10516,7 +10516,7 @@
       <c r="J38" s="35"/>
       <c r="K38" s="35"/>
       <c r="L38" s="104" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M38" s="35" t="s">
         <v>134</v>
@@ -10549,7 +10549,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>92</v>
@@ -10585,10 +10585,10 @@
         <v>14</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="66"/>
@@ -10631,7 +10631,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>816</v>
@@ -10663,7 +10663,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>770</v>
@@ -10704,13 +10704,13 @@
         <v>922</v>
       </c>
       <c r="H44" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I44" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J44" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K44" s="35"/>
       <c r="L44" s="35" t="s">
@@ -10738,13 +10738,13 @@
         <v>923</v>
       </c>
       <c r="H45" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I45" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J45" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K45" s="35"/>
       <c r="L45" s="35" t="s">
@@ -10781,7 +10781,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>159</v>
@@ -10831,7 +10831,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>337</v>
@@ -10849,7 +10849,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>520</v>
@@ -10867,7 +10867,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>817</v>
@@ -10899,7 +10899,7 @@
         <v>41</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>771</v>
@@ -10940,13 +10940,13 @@
         <v>927</v>
       </c>
       <c r="H51" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J51" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K51" s="35"/>
       <c r="L51" s="35" t="s">
@@ -10974,13 +10974,13 @@
         <v>926</v>
       </c>
       <c r="H52" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I52" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J52" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K52" s="35"/>
       <c r="L52" s="35" t="s">
@@ -11015,7 +11015,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L53" s="35" t="s">
         <v>690</v>
@@ -11048,7 +11048,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>251</v>
@@ -27986,7 +27986,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>1035</v>
@@ -28005,7 +28005,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>751</v>
@@ -28022,7 +28022,7 @@
       <c r="J12" s="49"/>
       <c r="K12" s="35"/>
       <c r="L12" s="109" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>117</v>
@@ -28056,7 +28056,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>258</v>
@@ -28075,7 +28075,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>361</v>
@@ -28110,7 +28110,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>954</v>
@@ -28128,13 +28128,13 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L15" s="35" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M15" s="35" t="s">
         <v>1236</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>1237</v>
       </c>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -28149,7 +28149,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F16" s="56" t="s">
         <v>680</v>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L16" s="70" t="s">
         <v>869</v>
@@ -28186,7 +28186,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>953</v>
@@ -28204,10 +28204,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="M17" s="70" t="s">
         <v>559</v>
@@ -28241,7 +28241,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>822</v>
@@ -28260,7 +28260,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>955</v>
@@ -28295,7 +28295,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>587</v>
@@ -28313,7 +28313,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L20" s="49" t="s">
         <v>585</v>
@@ -28330,13 +28330,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="109" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G21" s="109" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H21" s="109" t="s">
         <v>13</v>
@@ -28347,7 +28347,7 @@
       <c r="J21" s="104"/>
       <c r="K21" s="106"/>
       <c r="L21" s="109" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M21" s="109"/>
       <c r="N21" s="51"/>
@@ -28361,13 +28361,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F22" s="109" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G22" s="109" t="s">
         <v>1245</v>
-      </c>
-      <c r="G22" s="109" t="s">
-        <v>1246</v>
       </c>
       <c r="H22" s="109" t="s">
         <v>13</v>
@@ -28378,7 +28378,7 @@
       <c r="J22" s="104"/>
       <c r="K22" s="106"/>
       <c r="L22" s="109" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M22" s="109"/>
       <c r="N22" s="51"/>
@@ -28392,7 +28392,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>818</v>
@@ -28425,7 +28425,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>772</v>
@@ -28467,13 +28467,13 @@
         <v>963</v>
       </c>
       <c r="H25" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J25" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="35" t="s">
@@ -28502,13 +28502,13 @@
         <v>962</v>
       </c>
       <c r="H26" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J26" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="35" t="s">
@@ -28528,7 +28528,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F27" s="56" t="s">
         <v>409</v>
@@ -28546,7 +28546,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>207</v>
@@ -28598,7 +28598,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>341</v>
@@ -28616,7 +28616,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>520</v>
@@ -28635,7 +28635,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>819</v>
@@ -28668,7 +28668,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>773</v>
@@ -28710,13 +28710,13 @@
         <v>959</v>
       </c>
       <c r="H32" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I32" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J32" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="35" t="s">
@@ -28745,13 +28745,13 @@
         <v>960</v>
       </c>
       <c r="H33" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J33" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="35" t="s">
@@ -28787,7 +28787,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>690</v>
@@ -28820,7 +28820,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>251</v>
@@ -29184,7 +29184,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>668</v>
@@ -29242,7 +29242,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>1035</v>
@@ -29285,7 +29285,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>96</v>
@@ -29328,7 +29328,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>579</v>
@@ -29374,7 +29374,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>984</v>
@@ -29403,10 +29403,10 @@
         <v>1065</v>
       </c>
       <c r="F11" s="56" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>1225</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1226</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -29418,7 +29418,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>1067</v>
@@ -29453,7 +29453,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="104" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>1069</v>
@@ -29470,7 +29470,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>556</v>
@@ -29488,7 +29488,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L13" s="86" t="s">
         <v>871</v>
@@ -29516,7 +29516,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>544</v>
@@ -29534,7 +29534,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L14" s="86" t="s">
         <v>692</v>
@@ -29580,7 +29580,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>827</v>
@@ -29626,7 +29626,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>169</v>
@@ -29672,7 +29672,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>19</v>
@@ -29718,7 +29718,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>1017</v>
@@ -29744,7 +29744,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F19" s="94" t="s">
         <v>851</v>
@@ -29762,7 +29762,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L19" s="95" t="s">
         <v>828</v>
@@ -29806,7 +29806,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>708</v>
@@ -29850,7 +29850,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>1018</v>
@@ -29894,7 +29894,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>1009</v>
@@ -29938,7 +29938,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>1010</v>
@@ -29982,7 +29982,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>1019</v>
@@ -30026,7 +30026,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>709</v>
@@ -30070,7 +30070,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>710</v>
@@ -30114,7 +30114,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>711</v>
@@ -30198,10 +30198,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L29" s="106" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>34</v>
@@ -30241,7 +30241,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="104" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>134</v>
@@ -30282,7 +30282,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>678</v>
@@ -30308,7 +30308,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>534</v>
@@ -30348,7 +30348,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>533</v>
@@ -30388,7 +30388,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>820</v>
@@ -30397,13 +30397,13 @@
         <v>803</v>
       </c>
       <c r="H34" s="116" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>85</v>
       </c>
       <c r="J34" s="117" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
@@ -30430,7 +30430,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>774</v>
@@ -30439,13 +30439,13 @@
         <v>786</v>
       </c>
       <c r="H35" s="116" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>85</v>
       </c>
       <c r="J35" s="117" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12" t="s">
@@ -30481,13 +30481,13 @@
         <v>950</v>
       </c>
       <c r="H36" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I36" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J36" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
@@ -30523,13 +30523,13 @@
         <v>951</v>
       </c>
       <c r="H37" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J37" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12" t="s">
@@ -30574,7 +30574,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>176</v>
@@ -30640,7 +30640,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>511</v>
@@ -30658,7 +30658,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>177</v>
@@ -30702,10 +30702,10 @@
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>1311</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>1312</v>
       </c>
       <c r="M41" s="12" t="s">
         <v>610</v>
@@ -30746,7 +30746,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>690</v>
@@ -30779,7 +30779,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>682</v>
@@ -30823,7 +30823,7 @@
         <v>14</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>683</v>
@@ -30849,7 +30849,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>528</v>
@@ -30889,7 +30889,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>529</v>
@@ -30929,22 +30929,22 @@
         <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F47" s="56" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G47" s="56" t="s">
         <v>1222</v>
       </c>
-      <c r="G47" s="56" t="s">
-        <v>1223</v>
-      </c>
       <c r="H47" s="116" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="116" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="12" t="s">
@@ -31297,8 +31297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31461,7 +31461,7 @@
     <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="52">
@@ -31471,10 +31471,10 @@
         <v>1065</v>
       </c>
       <c r="F5" s="56" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>1227</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>1228</v>
       </c>
       <c r="H5" s="56" t="s">
         <v>10</v>
@@ -31486,10 +31486,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="M5" s="35" t="s">
         <v>1065</v>
@@ -31498,7 +31498,7 @@
     <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="52">
@@ -31523,7 +31523,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="104" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1068</v>
@@ -31631,10 +31631,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>437</v>
@@ -31643,7 +31643,7 @@
     <row r="10" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="52">
@@ -31653,10 +31653,10 @@
         <v>193</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -31668,7 +31668,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>193</v>
@@ -31703,7 +31703,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>553</v>
@@ -31738,7 +31738,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>242</v>
@@ -31750,7 +31750,7 @@
     <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="101"/>
       <c r="B13" s="56" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="52">
@@ -31763,27 +31763,27 @@
         <v>1079</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="118" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1083</v>
+        <v>1327</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="101"/>
       <c r="B14" s="56" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="52">
@@ -31796,7 +31796,7 @@
         <v>1081</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>10</v>
@@ -31808,10 +31808,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L14" s="108" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -31841,7 +31841,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>822</v>
@@ -31867,13 +31867,13 @@
         <v>892</v>
       </c>
       <c r="H16" s="118" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="104" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
@@ -31907,7 +31907,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L17" s="102" t="s">
         <v>1070</v>
@@ -31925,9 +31925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -32172,10 +32170,10 @@
         <v>1065</v>
       </c>
       <c r="F7" s="56" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>1229</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>1230</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>10</v>
@@ -32187,10 +32185,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>1065</v>
@@ -32209,10 +32207,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>1085</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>1086</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>10</v>
@@ -32224,7 +32222,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="104" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>1068</v>
@@ -32259,7 +32257,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>255</v>
@@ -32276,7 +32274,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>753</v>
@@ -32309,13 +32307,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F11" s="56" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>1088</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1089</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -32327,7 +32325,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>873</v>
@@ -32344,13 +32342,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F12" s="56" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>1090</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>1091</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>10</v>
@@ -32375,7 +32373,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>1022</v>
@@ -32393,7 +32391,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>1024</v>
@@ -32428,7 +32426,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>188</v>
@@ -32463,7 +32461,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>553</v>
@@ -32500,7 +32498,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>1028</v>
@@ -32535,7 +32533,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>1032</v>
@@ -32555,19 +32553,19 @@
         <v>1033</v>
       </c>
       <c r="F18" s="56" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>1190</v>
       </c>
-      <c r="G18" s="56" t="s">
-        <v>1191</v>
-      </c>
       <c r="H18" s="118" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I18" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="118" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
@@ -32588,23 +32586,23 @@
         <v>1080</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="118" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="M19" s="35"/>
     </row>
@@ -32621,10 +32619,10 @@
         <v>1082</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>10</v>
@@ -32636,10 +32634,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L20" s="108" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -32651,7 +32649,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>821</v>
@@ -32682,7 +32680,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>775</v>
@@ -32722,13 +32720,13 @@
         <v>906</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J23" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="35" t="s">
@@ -32755,13 +32753,13 @@
         <v>907</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="35" t="s">
@@ -32797,7 +32795,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>192</v>
@@ -32863,7 +32861,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>822</v>
@@ -32882,8 +32880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33015,7 +33013,7 @@
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D4" s="12">
         <v>2</v>
@@ -33039,10 +33037,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>105</v>
@@ -33074,20 +33072,20 @@
         <v>14</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>998</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D6" s="12">
         <v>4</v>
@@ -33111,7 +33109,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>62</v>
@@ -33124,13 +33122,13 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7" s="12">
         <v>5</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>743</v>
@@ -33161,7 +33159,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>298</v>
@@ -33179,7 +33177,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>244</v>
@@ -33191,9 +33189,7 @@
     <row r="9" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="12">
         <v>7</v>
       </c>
@@ -33216,7 +33212,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>109</v>
@@ -33236,10 +33232,10 @@
         <v>684</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -33251,10 +33247,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M10" s="34"/>
     </row>
@@ -33269,10 +33265,10 @@
         <v>251</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -33284,7 +33280,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>251</v>
@@ -33861,8 +33857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34149,7 +34145,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>255</v>
@@ -34186,7 +34182,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>198</v>
@@ -34203,7 +34199,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>744</v>
@@ -34220,7 +34216,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>117</v>
@@ -34234,7 +34230,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>311</v>
@@ -34252,7 +34248,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>258</v>
@@ -34269,7 +34265,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>312</v>
@@ -34318,7 +34314,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>822</v>
@@ -34335,7 +34331,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>806</v>
@@ -34366,7 +34362,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>754</v>
@@ -34406,13 +34402,13 @@
         <v>971</v>
       </c>
       <c r="H16" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J16" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
@@ -34439,13 +34435,13 @@
         <v>972</v>
       </c>
       <c r="H17" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
@@ -34481,7 +34477,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>197</v>
@@ -34529,7 +34525,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>316</v>
@@ -34547,7 +34543,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L20" s="57" t="s">
         <v>520</v>
@@ -34564,7 +34560,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>805</v>
@@ -34595,7 +34591,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>755</v>
@@ -34635,13 +34631,13 @@
         <v>966</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J23" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35" t="s">
@@ -34668,13 +34664,13 @@
         <v>967</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
@@ -34708,7 +34704,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>690</v>
@@ -34741,7 +34737,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>251</v>
@@ -34781,8 +34777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35005,7 +35001,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1035</v>
@@ -35022,7 +35018,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>931</v>
@@ -35040,7 +35036,7 @@
         <v>89</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>626</v>
@@ -35057,13 +35053,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>1171</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>1172</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -35089,13 +35085,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>10</v>
@@ -35107,10 +35103,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="M9" s="59"/>
     </row>
@@ -35139,7 +35135,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>1047</v>
@@ -35171,7 +35167,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>258</v>
@@ -35188,7 +35184,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>346</v>
@@ -35237,7 +35233,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>822</v>
@@ -35254,7 +35250,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>807</v>
@@ -35285,7 +35281,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>756</v>
@@ -35325,13 +35321,13 @@
         <v>933</v>
       </c>
       <c r="H16" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J16" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
@@ -35358,13 +35354,13 @@
         <v>934</v>
       </c>
       <c r="H17" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
@@ -35400,7 +35396,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>197</v>
@@ -35448,7 +35444,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>320</v>
@@ -35466,7 +35462,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>520</v>
@@ -35483,7 +35479,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>808</v>
@@ -35514,7 +35510,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>757</v>
@@ -35554,13 +35550,13 @@
         <v>937</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J23" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35" t="s">
@@ -35587,13 +35583,13 @@
         <v>938</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
@@ -35627,7 +35623,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>690</v>
@@ -35660,7 +35656,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>251</v>
@@ -35729,7 +35725,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -35920,7 +35916,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>1003</v>
@@ -35957,7 +35953,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>52</v>
@@ -35976,7 +35972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -36255,7 +36251,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>575</v>
@@ -36306,7 +36302,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>1035</v>
@@ -36323,7 +36319,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>746</v>
@@ -36340,7 +36336,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>1047</v>
@@ -36372,7 +36368,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>258</v>
@@ -36389,7 +36385,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>349</v>
@@ -36438,7 +36434,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>822</v>
@@ -36455,7 +36451,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>686</v>
@@ -36486,7 +36482,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>689</v>
@@ -36526,13 +36522,13 @@
         <v>974</v>
       </c>
       <c r="H16" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J16" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="12" t="s">
@@ -36559,13 +36555,13 @@
         <v>975</v>
       </c>
       <c r="H17" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="12" t="s">
@@ -36601,7 +36597,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>119</v>
@@ -36649,7 +36645,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>324</v>
@@ -36667,7 +36663,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>520</v>
@@ -36684,7 +36680,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>809</v>
@@ -36715,7 +36711,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>758</v>
@@ -36755,13 +36751,13 @@
         <v>979</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J23" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="12" t="s">
@@ -36788,13 +36784,13 @@
         <v>978</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="12" t="s">
@@ -36828,7 +36824,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>690</v>
@@ -36861,7 +36857,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>251</v>
@@ -37247,7 +37243,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>845</v>
@@ -37329,7 +37325,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>1035</v>
@@ -37346,7 +37342,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>747</v>
@@ -37363,7 +37359,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>117</v>
@@ -37377,7 +37373,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>275</v>
@@ -37395,7 +37391,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>258</v>
@@ -37412,7 +37408,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>276</v>
@@ -37461,7 +37457,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>822</v>
@@ -37496,13 +37492,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="104" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -37513,10 +37509,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>1198</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>1199</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>286</v>
@@ -37532,10 +37528,10 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M18" s="35" t="s">
         <v>1200</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>1201</v>
       </c>
       <c r="N18" s="100"/>
     </row>
@@ -37565,13 +37561,13 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37630,10 +37626,10 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M21" s="35" t="s">
         <v>1203</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37664,7 +37660,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>124</v>
@@ -37683,7 +37679,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>246</v>
@@ -37731,10 +37727,10 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M24" s="35" t="s">
         <v>1206</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37745,7 +37741,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>810</v>
@@ -37776,7 +37772,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>764</v>
@@ -37816,13 +37812,13 @@
         <v>910</v>
       </c>
       <c r="H27" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="s">
@@ -37849,13 +37845,13 @@
         <v>911</v>
       </c>
       <c r="H28" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J28" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="35" t="s">
@@ -37891,7 +37887,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>558</v>
@@ -37939,7 +37935,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>283</v>
@@ -37955,7 +37951,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>520</v>
@@ -37972,7 +37968,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>811</v>
@@ -38003,7 +37999,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>765</v>
@@ -38043,13 +38039,13 @@
         <v>914</v>
       </c>
       <c r="H34" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J34" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="35" t="s">
@@ -38076,13 +38072,13 @@
         <v>915</v>
       </c>
       <c r="H35" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I35" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J35" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="35" t="s">
@@ -38116,7 +38112,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>690</v>
@@ -38149,7 +38145,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>251</v>
@@ -38235,7 +38231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
@@ -38463,7 +38459,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1035</v>
@@ -38513,7 +38509,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>748</v>
@@ -38530,7 +38526,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>117</v>
@@ -38563,7 +38559,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>258</v>
@@ -38581,7 +38577,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>352</v>
@@ -38631,7 +38627,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>822</v>
@@ -38667,7 +38663,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>69</v>
@@ -38703,7 +38699,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>131</v>
@@ -38739,7 +38735,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>679</v>
@@ -38757,7 +38753,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>445</v>
@@ -38789,7 +38785,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>446</v>
@@ -38821,7 +38817,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>447</v>
@@ -38838,10 +38834,10 @@
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N17" s="89"/>
     </row>
@@ -38853,7 +38849,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>448</v>
@@ -38870,10 +38866,10 @@
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="N18" s="89"/>
     </row>
@@ -38902,10 +38898,10 @@
       <c r="J19" s="34"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M19" s="35" t="s">
         <v>1210</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>1211</v>
       </c>
       <c r="N19" s="89"/>
     </row>
@@ -38937,13 +38933,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="N20" s="89"/>
     </row>
@@ -38998,13 +38994,13 @@
         <v>451</v>
       </c>
       <c r="H22" s="113" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="114" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="35" t="s">
@@ -39032,13 +39028,13 @@
         <v>452</v>
       </c>
       <c r="H23" s="113" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="115" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35" t="s">
@@ -39066,13 +39062,13 @@
         <v>453</v>
       </c>
       <c r="H24" s="113" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="114" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
@@ -39100,13 +39096,13 @@
         <v>454</v>
       </c>
       <c r="H25" s="113" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35" t="s">
@@ -39125,7 +39121,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>853</v>
@@ -39143,7 +39139,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>855</v>
@@ -39179,7 +39175,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>859</v>
@@ -39215,7 +39211,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>1008</v>
@@ -39251,7 +39247,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>1009</v>
@@ -39287,7 +39283,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>1010</v>
@@ -39305,7 +39301,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>462</v>
@@ -39322,7 +39318,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>137</v>
@@ -39337,7 +39333,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>464</v>
@@ -39387,7 +39383,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>1011</v>
@@ -39423,7 +39419,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>608</v>
@@ -39459,7 +39455,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>609</v>
@@ -39495,7 +39491,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>75</v>
@@ -39563,13 +39559,13 @@
         <v>14</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L38" s="104" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="N38" s="89"/>
     </row>
@@ -39598,7 +39594,7 @@
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
       <c r="L39" s="108" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M39" s="35" t="s">
         <v>134</v>
@@ -39631,7 +39627,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>93</v>
@@ -39648,13 +39644,13 @@
         <v>37</v>
       </c>
       <c r="E41" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>1215</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>1216</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>1217</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>10</v>
@@ -39666,10 +39662,10 @@
         <v>14</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M41" s="35" t="s">
         <v>1058</v>
@@ -39704,10 +39700,10 @@
         <v>14</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M42" s="35" t="s">
         <v>1049</v>
@@ -39742,10 +39738,10 @@
         <v>14</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M43" s="35" t="s">
         <v>1059</v>
@@ -39780,13 +39776,13 @@
         <v>14</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L44" s="35" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M44" s="35" t="s">
         <v>1165</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>1166</v>
       </c>
       <c r="N44" s="96"/>
     </row>
@@ -39827,7 +39823,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>562</v>
@@ -39845,7 +39841,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>830</v>
@@ -39862,7 +39858,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>812</v>
@@ -39893,7 +39889,7 @@
         <v>44</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>766</v>
@@ -39933,13 +39929,13 @@
         <v>895</v>
       </c>
       <c r="H49" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J49" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12" t="s">
@@ -39966,13 +39962,13 @@
         <v>896</v>
       </c>
       <c r="H50" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I50" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J50" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="12" t="s">
@@ -40008,7 +40004,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>135</v>
@@ -40056,7 +40052,7 @@
         <v>49</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>328</v>
@@ -40072,7 +40068,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>520</v>
@@ -40089,7 +40085,7 @@
         <v>50</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>813</v>
@@ -40120,7 +40116,7 @@
         <v>51</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>767</v>
@@ -40160,13 +40156,13 @@
         <v>900</v>
       </c>
       <c r="H56" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I56" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J56" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K56" s="12"/>
       <c r="L56" s="12" t="s">
@@ -40193,13 +40189,13 @@
         <v>901</v>
       </c>
       <c r="H57" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I57" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J57" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12" t="s">
@@ -40233,7 +40229,7 @@
         <v>14</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L58" s="12" t="s">
         <v>690</v>
@@ -40267,7 +40263,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>251</v>
@@ -40396,7 +40392,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40610,7 +40606,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>1035</v>
@@ -40629,7 +40625,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>623</v>
@@ -40647,7 +40643,7 @@
         <v>627</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>626</v>
@@ -40668,13 +40664,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F8" s="34" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>1176</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>1177</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>10</v>
@@ -40700,7 +40696,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>428</v>
@@ -40718,7 +40714,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>147</v>
@@ -40801,7 +40797,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>749</v>
@@ -40818,7 +40814,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>117</v>
@@ -40850,7 +40846,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>258</v>
@@ -40867,7 +40863,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>355</v>
@@ -40916,7 +40912,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>822</v>
@@ -40951,7 +40947,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>143</v>
@@ -40968,7 +40964,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>426</v>
@@ -40977,13 +40973,13 @@
         <v>426</v>
       </c>
       <c r="H17" s="113" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
@@ -41001,7 +40997,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>814</v>
@@ -41032,7 +41028,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>768</v>
@@ -41072,13 +41068,13 @@
         <v>944</v>
       </c>
       <c r="H20" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J20" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="35" t="s">
@@ -41105,13 +41101,13 @@
         <v>945</v>
       </c>
       <c r="H21" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J21" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
@@ -41147,7 +41143,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>146</v>
@@ -41195,7 +41191,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>332</v>
@@ -41213,7 +41209,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>520</v>
@@ -41230,7 +41226,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>815</v>
@@ -41261,7 +41257,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>769</v>
@@ -41301,13 +41297,13 @@
         <v>942</v>
       </c>
       <c r="H27" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35" t="s">
@@ -41334,13 +41330,13 @@
         <v>943</v>
       </c>
       <c r="H28" s="108" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>85</v>
       </c>
       <c r="J28" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K28" s="35"/>
       <c r="L28" s="35" t="s">
@@ -41374,7 +41370,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>1001</v>
@@ -41407,7 +41403,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>251</v>
@@ -41439,15 +41435,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41619,6 +41606,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
   <ds:schemaRefs>
@@ -41636,14 +41632,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41659,4 +41647,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model CS.xlsx
+++ b/Documents/RDBES Data Model CS.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3F633-9F32-451E-8556-64F7084C713D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08101AD-C7A9-4EFB-A645-591BF7B2B842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-105" windowWidth="38625" windowHeight="21225" tabRatio="781" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="-105" windowWidth="38625" windowHeight="21225" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.17" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.18" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -38,42 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Adriana Villamor</author>
-  </authors>
-  <commentList>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{A5564685-7CF3-46CF-A1EA-7BCB10D7F98E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adriana Villamor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-this description does not fit the one in recodur</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1463">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -4120,9 +4086,6 @@
     <t>E.g. Age/ Stock (for stock spliting)/Total length/tail length/head length/folk length/ Weight live/Weight gutted/Weight headless/ Maturity/Sex/SpecimentState/Berried.</t>
   </si>
   <si>
-    <t>Kirsten: At WKRDBES-INTRO2 someone raised the following question: For assed stocks - what if you have measurements where you know  that FMtypeMeasured != FMtypeAssessment, but FMconFacAssess is unknown….</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data collected by. E.g Selfsampling, Observer, Control, Imagery. In the future potential combinations of e.g. observer and EM. </t>
   </si>
   <si>
@@ -4190,9 +4153,6 @@
   </si>
   <si>
     <t>Auxiliary Variable Total</t>
-  </si>
-  <si>
-    <t>Decimal</t>
   </si>
   <si>
     <t>The total value of auxiliary variable in the stratum (to be used in, e.g., ratio estimation). Auxiliary variables are 'extra' variables measured in association with the desired variable that might be used to increase precision of the estimate.</t>
@@ -4502,12 +4462,6 @@
     <t>Fisheries management unit</t>
   </si>
   <si>
-    <t>FisheriesManagementUnit</t>
-  </si>
-  <si>
-    <t>Fisheries management unit codes are used when stocks are not only defined by statistical rectangles, e.g. Redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline, Nephrops when the stat. rect. is not known but the FU is.</t>
-  </si>
-  <si>
     <t>FOfisheriesManagementUnit</t>
   </si>
   <si>
@@ -4526,14 +4480,32 @@
     <t>SAfishManUnit</t>
   </si>
   <si>
-    <t>Fisheries management unit codes are used when stocks are not only defined by statistical rectangles, e.g. Redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline.</t>
+    <t>AreaNonFAO</t>
+  </si>
+  <si>
+    <t>Fisheries management unit codes can be used for further refine the spatial component. Example, this can be use to individualise catches and samples of e.g. redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline, Nephrops where it cannot be defined by the statistical rectangle.</t>
+  </si>
+  <si>
+    <t>Fisheries management unit codes are used when stocks need further refine, e.g. Redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline.</t>
+  </si>
+  <si>
+    <t>Dominant Fisheries management unit codes can be used for further refine the spatial component. Example, this can be use to individualise catches and samples of e.g. redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline, Nephrops where it cannot be defined by the statistical rectangle.</t>
+  </si>
+  <si>
+    <t>Dominant Fisheries management unit codes are used when stocks need further refine, e.g. Redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline.</t>
+  </si>
+  <si>
+    <t>If aggregationlevel is over all hauls/aggregationlevel= Trip, then use Dominant Fisheries management unit codes can be used for further refine the spatial component. Example, this can be use to individualise catches and samples of e.g. redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline, Nephrops where it cannot be defined by the statistical rectangle.</t>
+  </si>
+  <si>
+    <t>If aggregationlevel is over all hauls/aggregationlevel= Trip, then use dominant Fisheries management unit codes are used when stocks need further refine, e.g. Redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4656,19 +4628,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4712,7 +4671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4785,11 +4744,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4945,7 +4913,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4955,9 +4923,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5312,7 +5282,7 @@
   </sheetPr>
   <dimension ref="A2:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -6564,7 +6534,7 @@
         <v>Total number of fish in this stratum</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:35" ht="94.5" x14ac:dyDescent="0.5">
       <c r="J16" s="10" t="str">
         <f>IF(ISBLANK('Vessel Selection'!A15)=TRUE, 'Vessel Selection'!F15, "")</f>
         <v>VSnumberSampled</v>
@@ -7368,7 +7338,7 @@
         <v>Whole weight in grammes.</v>
       </c>
     </row>
-    <row r="30" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="30" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I30" s="9" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!B2, "")</f>
         <v/>
@@ -8394,7 +8364,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="57" spans="10:23" x14ac:dyDescent="0.5">
       <c r="J57" s="22" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -9150,7 +9120,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="107" spans="14:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="107" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N107" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A50)=TRUE, 'Landing event'!F50, "")</f>
         <v>LEnumberTotalClusters</v>
@@ -9223,7 +9193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:XFC65"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -10260,7 +10230,7 @@
       </c>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A30" s="69"/>
       <c r="B30" s="69"/>
       <c r="C30" s="64"/>
@@ -10268,13 +10238,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H30" s="77" t="s">
         <v>10</v>
@@ -10286,10 +10256,10 @@
         <v>14</v>
       </c>
       <c r="K30" s="77" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="L30" s="77" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="M30" s="74" t="s">
         <v>1460</v>
@@ -10948,7 +10918,7 @@
       </c>
       <c r="N49" s="23"/>
     </row>
-    <row r="50" spans="1:16383" ht="24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16383" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="21"/>
@@ -11155,19 +11125,19 @@
         <v>47</v>
       </c>
       <c r="E56" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F56" s="64" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H56" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J56" s="64" t="s">
         <v>14</v>
@@ -11176,10 +11146,10 @@
         <v>1251</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M56" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N56" s="23"/>
     </row>
@@ -11227,16 +11197,16 @@
         <v>49</v>
       </c>
       <c r="E58" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F58" s="73" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="H58" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I58" s="64" t="s">
         <v>85</v>
@@ -11244,10 +11214,10 @@
       <c r="J58" s="64"/>
       <c r="K58" s="64"/>
       <c r="L58" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M58" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="N58" s="23"/>
     </row>
@@ -11259,16 +11229,16 @@
         <v>50</v>
       </c>
       <c r="E59" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F59" s="73" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G59" s="64" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="H59" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I59" s="64" t="s">
         <v>85</v>
@@ -11276,10 +11246,10 @@
       <c r="J59" s="64"/>
       <c r="K59" s="64"/>
       <c r="L59" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M59" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="N59" s="23"/>
     </row>
@@ -11291,13 +11261,13 @@
         <v>51</v>
       </c>
       <c r="E60" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F60" s="73" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G60" s="64" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="H60" s="64" t="s">
         <v>10</v>
@@ -11306,16 +11276,16 @@
         <v>85</v>
       </c>
       <c r="J60" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L60" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K60" s="64" t="s">
+      <c r="M60" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L60" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M60" s="64" t="s">
-        <v>1363</v>
       </c>
       <c r="N60" s="47"/>
       <c r="O60" s="47"/>
@@ -27696,13 +27666,13 @@
         <v>52</v>
       </c>
       <c r="E61" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F61" s="73" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G61" s="64" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H61" s="64" t="s">
         <v>10</v>
@@ -27714,13 +27684,13 @@
         <v>14</v>
       </c>
       <c r="K61" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M61" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="N61" s="23"/>
     </row>
@@ -27786,8 +27756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29041,19 +29011,19 @@
         <v>28</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G36" s="71" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H36" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J36" s="64" t="s">
         <v>14</v>
@@ -29062,10 +29032,10 @@
         <v>1251</v>
       </c>
       <c r="L36" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M36" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -29078,16 +29048,16 @@
         <v>29</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F37" s="73" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I37" s="64" t="s">
         <v>85</v>
@@ -29095,10 +29065,10 @@
       <c r="J37" s="64"/>
       <c r="K37" s="64"/>
       <c r="L37" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M37" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
@@ -29111,16 +29081,16 @@
         <v>30</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F38" s="73" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="H38" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I38" s="64" t="s">
         <v>85</v>
@@ -29128,10 +29098,10 @@
       <c r="J38" s="64"/>
       <c r="K38" s="64"/>
       <c r="L38" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M38" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
@@ -29144,13 +29114,13 @@
         <v>31</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H39" s="64" t="s">
         <v>10</v>
@@ -29159,16 +29129,16 @@
         <v>85</v>
       </c>
       <c r="J39" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L39" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K39" s="64" t="s">
+      <c r="M39" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L39" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M39" s="64" t="s">
-        <v>1363</v>
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
@@ -29181,13 +29151,13 @@
         <v>32</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H40" s="64" t="s">
         <v>10</v>
@@ -29199,13 +29169,13 @@
         <v>14</v>
       </c>
       <c r="K40" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M40" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
@@ -29257,8 +29227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30170,13 +30140,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="H22" s="77" t="s">
         <v>10</v>
@@ -30188,13 +30158,13 @@
         <v>14</v>
       </c>
       <c r="K22" s="77" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="L22" s="77" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="M22" s="74" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
@@ -30294,7 +30264,7 @@
       <c r="U24" s="23"/>
       <c r="V24" s="23"/>
     </row>
-    <row r="25" spans="1:22" s="13" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -31134,19 +31104,19 @@
         <v>41</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F45" s="64" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G45" s="71" t="s">
         <v>1342</v>
-      </c>
-      <c r="G45" s="71" t="s">
-        <v>1343</v>
       </c>
       <c r="H45" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J45" s="64" t="s">
         <v>14</v>
@@ -31155,10 +31125,10 @@
         <v>1251</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M45" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="24" x14ac:dyDescent="0.45">
@@ -31371,7 +31341,7 @@
       <c r="U50" s="23"/>
       <c r="V50" s="23"/>
     </row>
-    <row r="51" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -31379,16 +31349,16 @@
         <v>47</v>
       </c>
       <c r="E51" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F51" s="73" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G51" s="64" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H51" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I51" s="64" t="s">
         <v>85</v>
@@ -31396,10 +31366,10 @@
       <c r="J51" s="64"/>
       <c r="K51" s="64"/>
       <c r="L51" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M51" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
@@ -31419,16 +31389,16 @@
         <v>48</v>
       </c>
       <c r="E52" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F52" s="73" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G52" s="64" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H52" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I52" s="64" t="s">
         <v>85</v>
@@ -31436,10 +31406,10 @@
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
       <c r="L52" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M52" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
@@ -31459,13 +31429,13 @@
         <v>49</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F53" s="73" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H53" s="64" t="s">
         <v>10</v>
@@ -31474,16 +31444,16 @@
         <v>85</v>
       </c>
       <c r="J53" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K53" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L53" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K53" s="64" t="s">
+      <c r="M53" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L53" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M53" s="64" t="s">
-        <v>1363</v>
       </c>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
@@ -31503,13 +31473,13 @@
         <v>50</v>
       </c>
       <c r="E54" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F54" s="73" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G54" s="64" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="H54" s="64" t="s">
         <v>10</v>
@@ -31521,13 +31491,13 @@
         <v>14</v>
       </c>
       <c r="K54" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M54" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
@@ -31781,8 +31751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32155,7 +32125,7 @@
         <v>1297</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>193</v>
@@ -32298,11 +32268,8 @@
         <v>1234</v>
       </c>
       <c r="M14" s="21"/>
-      <c r="N14" s="13" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -32411,7 +32378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -32642,7 +32609,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A7" s="21"/>
       <c r="B7" s="20" t="s">
         <v>1034</v>
@@ -32844,7 +32811,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
       <c r="L12" s="64" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>435</v>
@@ -33365,8 +33332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33781,19 +33748,19 @@
         <v>10</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="H12" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J12" s="64" t="s">
         <v>14</v>
@@ -33802,10 +33769,10 @@
         <v>1251</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M12" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="58.9" x14ac:dyDescent="0.45">
@@ -33816,16 +33783,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>85</v>
@@ -33833,10 +33800,10 @@
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
       <c r="L13" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M13" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="47.25" x14ac:dyDescent="0.45">
@@ -33847,16 +33814,16 @@
         <v>12</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>85</v>
@@ -33864,10 +33831,10 @@
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
       <c r="L14" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M14" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="47.25" x14ac:dyDescent="0.45">
@@ -33878,13 +33845,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>10</v>
@@ -33893,16 +33860,16 @@
         <v>85</v>
       </c>
       <c r="J15" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L15" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="M15" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L15" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M15" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -33913,13 +33880,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>10</v>
@@ -33931,13 +33898,13 @@
         <v>14</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M16" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
@@ -34367,11 +34334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34828,10 +34795,10 @@
         <v>1256</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -35265,19 +35232,19 @@
         <v>22</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H27" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J27" s="64" t="s">
         <v>14</v>
@@ -35286,10 +35253,10 @@
         <v>1251</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M27" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="70.5" x14ac:dyDescent="0.45">
@@ -35300,16 +35267,16 @@
         <v>23</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I28" s="64" t="s">
         <v>85</v>
@@ -35317,10 +35284,10 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M28" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="58.9" x14ac:dyDescent="0.45">
@@ -35331,16 +35298,16 @@
         <v>24</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I29" s="64" t="s">
         <v>85</v>
@@ -35348,10 +35315,10 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
       <c r="L29" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M29" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="47.25" x14ac:dyDescent="0.45">
@@ -35362,13 +35329,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>10</v>
@@ -35377,16 +35344,16 @@
         <v>85</v>
       </c>
       <c r="J30" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L30" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="M30" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L30" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="46.5" x14ac:dyDescent="0.45">
@@ -35397,13 +35364,13 @@
         <v>26</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H31" s="64" t="s">
         <v>10</v>
@@ -35415,13 +35382,13 @@
         <v>14</v>
       </c>
       <c r="K31" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M31" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
@@ -35432,7 +35399,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35440,8 +35406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36332,19 +36298,19 @@
         <v>24</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H27" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J27" s="64" t="s">
         <v>14</v>
@@ -36353,10 +36319,10 @@
         <v>1251</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M27" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="47.25" x14ac:dyDescent="0.45">
@@ -36367,16 +36333,16 @@
         <v>25</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I28" s="64" t="s">
         <v>85</v>
@@ -36384,10 +36350,10 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M28" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="47.25" x14ac:dyDescent="0.45">
@@ -36398,16 +36364,16 @@
         <v>26</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I29" s="64" t="s">
         <v>85</v>
@@ -36415,10 +36381,10 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
       <c r="L29" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M29" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -36429,13 +36395,13 @@
         <v>27</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>10</v>
@@ -36444,16 +36410,16 @@
         <v>85</v>
       </c>
       <c r="J30" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L30" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="M30" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L30" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="46.5" x14ac:dyDescent="0.45">
@@ -36464,13 +36430,13 @@
         <v>28</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H31" s="64" t="s">
         <v>10</v>
@@ -36482,13 +36448,13 @@
         <v>14</v>
       </c>
       <c r="K31" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M31" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
@@ -36511,7 +36477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -36521,7 +36487,8 @@
     <col min="2" max="2" width="6.86328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="6.3984375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="26.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.86328125" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.265625" style="4" customWidth="1"/>
@@ -36759,8 +36726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37660,19 +37627,19 @@
         <v>22</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H27" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J27" s="64" t="s">
         <v>14</v>
@@ -37681,10 +37648,10 @@
         <v>1251</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M27" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -37695,16 +37662,16 @@
         <v>23</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I28" s="64" t="s">
         <v>85</v>
@@ -37712,10 +37679,10 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M28" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -37726,16 +37693,16 @@
         <v>24</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I29" s="64" t="s">
         <v>85</v>
@@ -37743,10 +37710,10 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
       <c r="L29" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M29" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -37757,13 +37724,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>10</v>
@@ -37772,16 +37739,16 @@
         <v>85</v>
       </c>
       <c r="J30" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L30" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="M30" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L30" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="46.5" x14ac:dyDescent="0.45">
@@ -37792,13 +37759,13 @@
         <v>26</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H31" s="64" t="s">
         <v>10</v>
@@ -37810,13 +37777,13 @@
         <v>14</v>
       </c>
       <c r="K31" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M31" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
@@ -37837,10 +37804,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38407,7 +38374,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -38442,7 +38409,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -38474,9 +38441,10 @@
       <c r="M18" s="21" t="s">
         <v>1197</v>
       </c>
-      <c r="N18" s="60"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+      <c r="N18" s="78"/>
+      <c r="O18" s="79"/>
+    </row>
+    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -38511,7 +38479,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -38542,7 +38510,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -38573,7 +38541,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21" t="s">
@@ -38610,7 +38578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="s">
@@ -38643,7 +38611,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -38674,7 +38642,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -38705,7 +38673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -38736,7 +38704,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -38769,7 +38737,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -38802,7 +38770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A29" s="32"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -38837,7 +38805,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="21"/>
       <c r="B30" s="38"/>
       <c r="C30" s="20"/>
@@ -38868,7 +38836,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -38901,7 +38869,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -39103,19 +39071,19 @@
         <v>30</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G38" s="71" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H38" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J38" s="64" t="s">
         <v>14</v>
@@ -39124,10 +39092,10 @@
         <v>1251</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M38" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -39138,16 +39106,16 @@
         <v>31</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="H39" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I39" s="64" t="s">
         <v>85</v>
@@ -39155,10 +39123,10 @@
       <c r="J39" s="64"/>
       <c r="K39" s="64"/>
       <c r="L39" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M39" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -39169,16 +39137,16 @@
         <v>32</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="H40" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I40" s="64" t="s">
         <v>85</v>
@@ -39186,10 +39154,10 @@
       <c r="J40" s="64"/>
       <c r="K40" s="64"/>
       <c r="L40" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M40" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -39200,13 +39168,13 @@
         <v>33</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F41" s="73" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="G41" s="64" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="H41" s="64" t="s">
         <v>10</v>
@@ -39215,16 +39183,16 @@
         <v>85</v>
       </c>
       <c r="J41" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K41" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L41" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K41" s="64" t="s">
+      <c r="M41" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L41" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M41" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="46.5" x14ac:dyDescent="0.45">
@@ -39235,13 +39203,13 @@
         <v>34</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H42" s="64" t="s">
         <v>10</v>
@@ -39253,13 +39221,13 @@
         <v>14</v>
       </c>
       <c r="K42" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M42" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
@@ -39287,8 +39255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40252,7 +40220,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="72.849999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="75"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -40260,13 +40228,13 @@
         <v>25</v>
       </c>
       <c r="E29" s="77" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G29" s="77" t="s">
         <v>1451</v>
-      </c>
-      <c r="F29" s="77" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>1455</v>
       </c>
       <c r="H29" s="77" t="s">
         <v>10</v>
@@ -40278,13 +40246,13 @@
         <v>14</v>
       </c>
       <c r="K29" s="77" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="L29" s="77" t="s">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="M29" s="74" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.45">
@@ -41335,19 +41303,19 @@
         <v>57</v>
       </c>
       <c r="E61" s="74" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F61" s="64" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H61" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J61" s="64" t="s">
         <v>14</v>
@@ -41356,10 +41324,10 @@
         <v>1251</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M61" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -41370,16 +41338,16 @@
         <v>58</v>
       </c>
       <c r="E62" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F62" s="73" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H62" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I62" s="64" t="s">
         <v>85</v>
@@ -41387,10 +41355,10 @@
       <c r="J62" s="64"/>
       <c r="K62" s="64"/>
       <c r="L62" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M62" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -41401,16 +41369,16 @@
         <v>59</v>
       </c>
       <c r="E63" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F63" s="73" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G63" s="64" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H63" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I63" s="64" t="s">
         <v>85</v>
@@ -41418,10 +41386,10 @@
       <c r="J63" s="64"/>
       <c r="K63" s="64"/>
       <c r="L63" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M63" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -41432,13 +41400,13 @@
         <v>60</v>
       </c>
       <c r="E64" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F64" s="73" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G64" s="64" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="H64" s="64" t="s">
         <v>10</v>
@@ -41447,16 +41415,16 @@
         <v>85</v>
       </c>
       <c r="J64" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K64" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L64" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K64" s="64" t="s">
+      <c r="M64" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L64" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M64" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="34.9" x14ac:dyDescent="0.45">
@@ -41467,13 +41435,13 @@
         <v>61</v>
       </c>
       <c r="E65" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="G65" s="64" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H65" s="64" t="s">
         <v>10</v>
@@ -41485,13 +41453,13 @@
         <v>14</v>
       </c>
       <c r="K65" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L65" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M65" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
@@ -41509,8 +41477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -42534,19 +42502,19 @@
         <v>28</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G31" s="71" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H31" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J31" s="64" t="s">
         <v>14</v>
@@ -42555,10 +42523,10 @@
         <v>1251</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M31" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="47.25" x14ac:dyDescent="0.45">
@@ -42569,16 +42537,16 @@
         <v>29</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G32" s="64" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I32" s="64" t="s">
         <v>85</v>
@@ -42586,10 +42554,10 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
       <c r="L32" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M32" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -42600,16 +42568,16 @@
         <v>30</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F33" s="73" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="H33" s="64" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="I33" s="64" t="s">
         <v>85</v>
@@ -42617,10 +42585,10 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
       <c r="L33" s="64" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M33" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -42631,13 +42599,13 @@
         <v>31</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F34" s="73" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G34" s="64" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H34" s="64" t="s">
         <v>10</v>
@@ -42646,16 +42614,16 @@
         <v>85</v>
       </c>
       <c r="J34" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L34" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="K34" s="64" t="s">
+      <c r="M34" s="64" t="s">
         <v>1361</v>
-      </c>
-      <c r="L34" s="64" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M34" s="64" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="46.5" x14ac:dyDescent="0.45">
@@ -42666,13 +42634,13 @@
         <v>32</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H35" s="64" t="s">
         <v>10</v>
@@ -42684,13 +42652,13 @@
         <v>14</v>
       </c>
       <c r="K35" s="74" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M35" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
@@ -42704,6 +42672,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -42875,15 +42852,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -42897,6 +42865,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42910,14 +42886,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/RDBES Data Model CS.xlsx
+++ b/Documents/RDBES Data Model CS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesit-my.sharepoint.com/personal/maria_makri_ices_dk/Documents/Profile/Desktop/Maria_ICES_dataflows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesit-my.sharepoint.com/personal/maria_makri_ices_dk/Documents/Profile/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{879C7060-C235-4878-966B-C050AC75B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC66A3B3-4EE6-4806-9562-1D26A8BCCD05}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{879C7060-C235-4878-966B-C050AC75B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDD7D45-7C25-4A7A-A851-54CA4C561147}"/>
   <bookViews>
-    <workbookView xWindow="28905" yWindow="60" windowWidth="21060" windowHeight="20745" tabRatio="781" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="781" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.19.27" sheetId="1" r:id="rId1"/>
@@ -4679,9 +4679,6 @@
     <t>The source of the geographical data. The source of the geographical data. When GeographicalDataBasis is  “Official”, allowed codes are:  "Logb", "SalN", "PosDat", "VMS", "NotApplicable".  When GeographicalDataBasis is  “Estimated”, allowed codes are:"HarbLoc", "PosDat", "Crew", "Observer", "Exprt", "CombOD", "NotApplicable". When  GeographicalDataBasis is  “Measured”, allowed codes are: "Crew", "Observer", Report “Unknown” and “Not Applicable” when GeographicalDataBasis is “Unknown” and “Not Applicable” respectively.</t>
   </si>
   <si>
-    <t>Independent Duration recorded by independent staff deployed onboard (observers, control).  When DurationDataBasis is  “Estimated”, allowed codes are: "Exprt", "Crew", "Observer", "NotApplicable"  When DurationDataBasis is  “Measured”, allowed codes are:  "Crew" and "Observer". Report “Unknown” and “Not Applicable” when DataBasisOfStatisticalRectangle is “Unknown” and “Not Applicable” respectively.</t>
-  </si>
-  <si>
     <t>Total Weight measured. Data are determined from: “Official”, "Estimated" or "Measured" data.</t>
   </si>
   <si>
@@ -4689,6 +4686,9 @@
   </si>
   <si>
     <t>The source of the gear data.  When GearDataBasis is  “Official”, allowed codes are: "Logb" (Logbook), "CombOD" (Combination of official data sources), "ΟthDF" (Other declarative forms), "NotApplicable".  When GearDataBasis is  “Estimated”, allowed codes are:"SampDS" (Survey Data), "SampDC" )Commercial sampling data), "Exprt" (Expert Evaluation), "CombOD", "Crew", "Observer", "NotApplicable". When  GearDataBasis is  “Measured”, allowed codes are: "Crew", "Observer", Report “Unknown” and “Not Applicable” when GearDataBasis is “Unknown” and “Not Applicable” respectively.</t>
+  </si>
+  <si>
+    <t>Independent Duration recorded by independent staff deployed onboard (observers, control). When DurationDataBasis is  “Official”, allowed codes are "Logb" "CombOD" , "OthDF". When DurationDataBasis is  “Estimated”, allowed codes are: "Exprt", "Crew", "Observer", "NotApplicable"  When DurationDataBasis is  “Measured”, allowed codes are:  "Crew" and "Observer". Report “Unknown” and “Not Applicable” when DataBasisOfStatisticalRectangle is “Unknown” and “Not Applicable” respectively.</t>
   </si>
 </sst>
 </file>
@@ -6158,7 +6158,7 @@
         <v>The stratum of this record, 'U' if unstratified</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!B10, "")</f>
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>The method of selecting fish</v>
       </c>
     </row>
-    <row r="19" spans="9:35" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:35" ht="93" x14ac:dyDescent="0.35">
       <c r="I19" s="9">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!B9, "")</f>
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>Name or code of the cluster selected for sampling</v>
       </c>
     </row>
-    <row r="81" spans="9:15" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:15" ht="31" x14ac:dyDescent="0.35">
       <c r="N81" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A18)=TRUE, 'Landing event'!F18, "")</f>
         <v>LEsampler</v>
@@ -10764,7 +10764,7 @@
         <v>1453</v>
       </c>
       <c r="L40" s="75" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="M40" s="71"/>
       <c r="N40" s="23"/>
@@ -28599,7 +28599,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
     </row>
-    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="156" x14ac:dyDescent="0.35">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
@@ -30357,7 +30357,7 @@
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
     </row>
-    <row r="19" spans="1:22" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -30692,7 +30692,7 @@
         <v>1453</v>
       </c>
       <c r="L26" s="75" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="23"/>
@@ -30705,7 +30705,7 @@
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
     </row>
-    <row r="27" spans="1:22" s="13" customFormat="1" ht="96.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" s="13" customFormat="1" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -30952,7 +30952,7 @@
         <v>1453</v>
       </c>
       <c r="L32" s="71" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="23"/>
@@ -31813,7 +31813,7 @@
         <v>1454</v>
       </c>
       <c r="L53" s="71" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="23"/>
@@ -31908,7 +31908,7 @@
       <c r="U55" s="23"/>
       <c r="V55" s="23"/>
     </row>
-    <row r="56" spans="1:22" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -32936,7 +32936,7 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -34321,7 +34321,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -34352,7 +34352,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -36301,7 +36301,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -37621,7 +37621,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="36.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -39097,7 +39097,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="36.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -39482,9 +39482,9 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40176,7 +40176,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -40205,7 +40205,7 @@
         <v>1453</v>
       </c>
       <c r="L21" s="75" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>1509</v>
@@ -40648,7 +40648,7 @@
         <v>1453</v>
       </c>
       <c r="L34" s="75" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="M34" s="71" t="s">
         <v>1511</v>
@@ -40890,7 +40890,7 @@
       </c>
       <c r="M41" s="71"/>
     </row>
-    <row r="42" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -40919,7 +40919,7 @@
         <v>1453</v>
       </c>
       <c r="L42" s="71" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="M42" s="71"/>
     </row>
@@ -43057,15 +43057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -43237,6 +43228,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -43250,14 +43250,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43271,6 +43263,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/RDBES Data Model CS.xlsx
+++ b/Documents/RDBES Data Model CS.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9EEAA-2B6C-497E-9386-EF7E74C5871B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1D1F4-1D7D-4219-B6E4-AAA80DF070B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59520" yWindow="1350" windowWidth="20625" windowHeight="11610" tabRatio="781" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.28" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.29" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -9347,7 +9347,7 @@
   </sheetPr>
   <dimension ref="A1:XFC69"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -29587,8 +29587,9 @@
   </sheetPr>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -30284,8 +30285,8 @@
       <c r="G17" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
+      <c r="H17" s="76" t="s">
+        <v>10</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>17</v>
@@ -30750,7 +30751,7 @@
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
     </row>
-    <row r="28" spans="1:22" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" s="13" customFormat="1" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -30794,7 +30795,7 @@
       <c r="U28" s="23"/>
       <c r="V28" s="23"/>
     </row>
-    <row r="29" spans="1:22" s="13" customFormat="1" ht="86.25" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" s="13" customFormat="1" ht="98.5" x14ac:dyDescent="0.75">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -30924,7 +30925,7 @@
       <c r="U31" s="23"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" s="13" customFormat="1" ht="98.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" s="13" customFormat="1" ht="110.75" x14ac:dyDescent="0.75">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -30966,7 +30967,7 @@
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
     </row>
-    <row r="33" spans="1:22" s="13" customFormat="1" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" s="13" customFormat="1" ht="74" x14ac:dyDescent="0.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -31050,7 +31051,7 @@
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="1:22" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" s="13" customFormat="1" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -31134,7 +31135,7 @@
       <c r="U36" s="23"/>
       <c r="V36" s="23"/>
     </row>
-    <row r="37" spans="1:22" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -31174,7 +31175,7 @@
       <c r="U37" s="23"/>
       <c r="V37" s="23"/>
     </row>
-    <row r="38" spans="1:22" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A38" s="6"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -31256,7 +31257,7 @@
       <c r="U39" s="23"/>
       <c r="V39" s="23"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" ht="24.5" x14ac:dyDescent="0.75">
       <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -31426,7 +31427,7 @@
       <c r="U43" s="23"/>
       <c r="V43" s="23"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" ht="25" x14ac:dyDescent="0.75">
       <c r="A44" s="6"/>
       <c r="B44" s="2"/>
       <c r="C44" s="5"/>
@@ -31745,7 +31746,7 @@
       <c r="U51" s="23"/>
       <c r="V51" s="23"/>
     </row>
-    <row r="52" spans="1:22" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:22" ht="74" x14ac:dyDescent="0.75">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -31827,7 +31828,7 @@
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
     </row>
-    <row r="54" spans="1:22" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:22" ht="74" x14ac:dyDescent="0.75">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -33306,7 +33307,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.75">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
@@ -34384,7 +34385,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:13" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -34639,7 +34640,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -34674,7 +34675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -34709,7 +34710,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -35303,7 +35304,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -35336,7 +35337,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="25" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -37262,7 +37263,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -38441,7 +38442,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -39483,9 +39484,9 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -40410,7 +40411,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" ht="74" x14ac:dyDescent="0.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -40655,7 +40656,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -43058,6 +43059,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -43229,28 +43251,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43268,30 +43293,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0b220ce-5735-4468-91df-05cae5ff1fdc}" enabled="0" method="" siteId="{e0b220ce-5735-4468-91df-05cae5ff1fdc}" removed="1"/>

--- a/Documents/RDBES Data Model CS.xlsx
+++ b/Documents/RDBES Data Model CS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RDBES_Core_Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesit-my.sharepoint.com/personal/henrikkn_ices_dk/Documents/RDBES/Data model/BACKUPs Data model Published/2026 02 02 After yellow removed no change/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1D1F4-1D7D-4219-B6E4-AAA80DF070B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{36D1D1F4-1D7D-4219-B6E4-AAA80DF070B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301B1532-2A07-43F8-8BFB-D7273F520008}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.19.29" sheetId="1" r:id="rId1"/>
@@ -5097,22 +5097,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5433,7 +5433,7 @@
   </sheetPr>
   <dimension ref="A2:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A42" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
@@ -5840,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:35" ht="32" x14ac:dyDescent="0.8">
       <c r="A7" s="9">
         <f>IF(ISBLANK(Design!A6)=TRUE, Design!B6, "")</f>
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="48" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:35" ht="64" x14ac:dyDescent="0.8">
       <c r="I14" s="9" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -6611,7 +6611,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="48" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:35" ht="64" x14ac:dyDescent="0.8">
       <c r="I15" s="9" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -6685,7 +6685,7 @@
         <v>Total number of fish in this stratum</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="96" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:35" ht="112" x14ac:dyDescent="0.8">
       <c r="J16" s="10" t="str">
         <f>IF(ISBLANK('Vessel Selection'!A15)=TRUE, 'Vessel Selection'!F15, "")</f>
         <v>VSnumberSampled</v>
@@ -6891,7 +6891,7 @@
         <v>The method of selecting fish</v>
       </c>
     </row>
-    <row r="19" spans="9:35" ht="112" x14ac:dyDescent="0.8">
+    <row r="19" spans="9:35" ht="128" x14ac:dyDescent="0.8">
       <c r="I19" s="9">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!B9, "")</f>
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>The Lower Hierarchy that will be used for this Sample/Subsample</v>
       </c>
     </row>
-    <row r="26" spans="9:35" ht="48" x14ac:dyDescent="0.8">
+    <row r="26" spans="9:35" ht="64" x14ac:dyDescent="0.8">
       <c r="N26" s="10" t="str">
         <f>IF(ISBLANK('Fishing Trip'!A27)=TRUE, 'Fishing Trip'!F27, "")</f>
         <v>FTnumberSampled</v>
@@ -8399,7 +8399,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:23" x14ac:dyDescent="0.8">
+    <row r="53" spans="10:23" ht="32" x14ac:dyDescent="0.8">
       <c r="J53" s="22" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!F2, "")</f>
         <v/>
@@ -8451,7 +8451,7 @@
         <v>Indicate whether non-responses were recorded at this sampling level.</v>
       </c>
     </row>
-    <row r="55" spans="10:23" x14ac:dyDescent="0.8">
+    <row r="55" spans="10:23" ht="32" x14ac:dyDescent="0.8">
       <c r="J55" s="22" t="str">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!F4, "")</f>
         <v>LOrecordType</v>
@@ -8635,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:23" ht="48" x14ac:dyDescent="0.8">
+    <row r="61" spans="10:23" ht="64" x14ac:dyDescent="0.8">
       <c r="J61" s="22" t="str">
         <f>IF(ISBLANK(Location!A13)=TRUE, Location!F13, "")</f>
         <v>LOsampler</v>
@@ -8851,7 +8851,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:23" x14ac:dyDescent="0.8">
+    <row r="71" spans="10:23" ht="32" x14ac:dyDescent="0.8">
       <c r="J71" s="22" t="str">
         <f>IF(ISBLANK(Location!A26)=TRUE, Location!F26, "")</f>
         <v>LOreasonNotSampled</v>
@@ -8933,7 +8933,7 @@
         <v>Indicator of presence ("Y") or absence ("N") of stratification of units in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="76" spans="10:23" ht="64" x14ac:dyDescent="0.8">
+    <row r="76" spans="10:23" ht="80" x14ac:dyDescent="0.8">
       <c r="N76" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A13)=TRUE, 'Landing event'!F13, "")</f>
         <v>LEsequenceNumber</v>
@@ -9003,7 +9003,7 @@
         <v xml:space="preserve">Have these landings come from a mix of trips? </v>
       </c>
     </row>
-    <row r="83" spans="9:15" ht="80" x14ac:dyDescent="0.8">
+    <row r="83" spans="9:15" ht="96" x14ac:dyDescent="0.8">
       <c r="N83" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A20)=TRUE, 'Landing event'!F20, "")</f>
         <v>LEcatchReg</v>
@@ -9111,7 +9111,7 @@
         <v xml:space="preserve">The area that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.8">
+    <row r="91" spans="9:15" ht="32" x14ac:dyDescent="0.8">
       <c r="N91" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A29)=TRUE, 'Landing event'!F29, "")</f>
         <v>LErectangle</v>
@@ -9251,7 +9251,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.8">
+    <row r="105" spans="14:15" ht="32" x14ac:dyDescent="0.8">
       <c r="N105" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A51)=TRUE, 'Landing event'!F51, "")</f>
         <v>LEselectionMethod</v>
@@ -9321,7 +9321,7 @@
         <v>Yes, No, unknown</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.8">
+    <row r="112" spans="14:15" ht="32" x14ac:dyDescent="0.8">
       <c r="N112" s="10" t="str">
         <f>IF(ISBLANK('Landing event'!A63)=TRUE, 'Landing event'!F63, "")</f>
         <v>LEauxiliaryVariableValue</v>
@@ -9342,13 +9342,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:XFC69"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9369,7 +9366,7 @@
     <col min="14" max="14" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -9868,7 +9865,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:14" ht="25" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="21"/>
@@ -10004,7 +10001,7 @@
       </c>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="25" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="21"/>
@@ -10497,25 +10494,25 @@
       <c r="D33" s="71">
         <v>24</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="74" t="s">
         <v>1453</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="74" t="s">
         <v>1465</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="74" t="s">
         <v>1466</v>
       </c>
-      <c r="H33" s="73" t="s">
+      <c r="H33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L33" s="71" t="s">
@@ -10531,65 +10528,65 @@
       <c r="D34" s="71">
         <v>25</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="74" t="s">
         <v>1456</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="74" t="s">
         <v>1467</v>
       </c>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="74" t="s">
         <v>1468</v>
       </c>
-      <c r="H34" s="73" t="s">
+      <c r="H34" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="75" t="s">
         <v>1451</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="72" t="s">
         <v>1509</v>
       </c>
       <c r="M34" s="71"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:14" ht="74" x14ac:dyDescent="0.75">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="21"/>
       <c r="D35" s="71">
         <v>26</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="74" t="s">
         <v>624</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="74" t="s">
         <v>630</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="71" t="s">
         <v>1250</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="71" t="s">
         <v>1001</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="71" t="s">
         <v>599</v>
       </c>
       <c r="N35" s="35"/>
@@ -10601,31 +10598,31 @@
       <c r="D36" s="71">
         <v>27</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="71" t="s">
         <v>1251</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="71" t="s">
         <v>854</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="71" t="s">
         <v>131</v>
       </c>
       <c r="N36" s="35"/>
@@ -10637,31 +10634,31 @@
       <c r="D37" s="71">
         <v>28</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="74" t="s">
         <v>917</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="74" t="s">
         <v>626</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="74" t="s">
         <v>626</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="71" t="s">
         <v>1252</v>
       </c>
-      <c r="L37" s="21" t="s">
+      <c r="L37" s="71" t="s">
         <v>855</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="71" t="s">
         <v>132</v>
       </c>
       <c r="N37" s="23"/>
@@ -10673,31 +10670,31 @@
       <c r="D38" s="71">
         <v>29</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="71" t="s">
         <v>1253</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="71" t="s">
         <v>856</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="71" t="s">
         <v>77</v>
       </c>
       <c r="N38" s="23"/>
@@ -10709,25 +10706,25 @@
       <c r="D39" s="71">
         <v>30</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="74" t="s">
         <v>1459</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="74" t="s">
         <v>1469</v>
       </c>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="74" t="s">
         <v>1470</v>
       </c>
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="74" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L39" s="71" t="s">
@@ -10743,28 +10740,28 @@
       <c r="D40" s="71">
         <v>31</v>
       </c>
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="74" t="s">
         <v>1462</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="74" t="s">
         <v>1471</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="74" t="s">
         <v>1464</v>
       </c>
-      <c r="H40" s="73" t="s">
+      <c r="H40" s="74" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="73" t="s">
+      <c r="J40" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="75" t="s">
         <v>1451</v>
       </c>
-      <c r="L40" s="75" t="s">
+      <c r="L40" s="72" t="s">
         <v>1512</v>
       </c>
       <c r="M40" s="71"/>
@@ -10940,7 +10937,7 @@
       <c r="M45" s="21"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="20"/>
@@ -28040,13 +28037,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -28066,7 +28060,7 @@
     <col min="13" max="13" width="40.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -28177,7 +28171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A4" s="63" t="s">
         <v>12</v>
       </c>
@@ -28249,7 +28243,7 @@
       </c>
       <c r="M5" s="63"/>
     </row>
-    <row r="6" spans="1:15" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
@@ -28284,7 +28278,7 @@
       </c>
       <c r="M6" s="63"/>
     </row>
-    <row r="7" spans="1:15" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A7" s="63" t="s">
         <v>12</v>
       </c>
@@ -28600,7 +28594,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
     </row>
-    <row r="16" spans="1:15" ht="159.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" ht="183.75" x14ac:dyDescent="0.75">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
@@ -28814,7 +28808,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -28839,7 +28833,7 @@
       <c r="J22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L22" s="71" t="s">
@@ -28856,24 +28850,24 @@
       <c r="D23" s="77">
         <v>15</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="77" t="s">
         <v>1219</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="77" t="s">
         <v>1221</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="77" t="s">
         <v>1222</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="52" t="s">
+      <c r="J23" s="77"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="77" t="s">
         <v>1225</v>
       </c>
       <c r="M23" s="52"/>
@@ -28887,24 +28881,24 @@
       <c r="D24" s="77">
         <v>16</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="77" t="s">
         <v>1124</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="77" t="s">
         <v>793</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="52" t="s">
+      <c r="J24" s="77"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="77" t="s">
         <v>205</v>
       </c>
       <c r="M24" s="52" t="s">
@@ -28938,7 +28932,7 @@
       <c r="J25" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L25" s="71" t="s">
@@ -28981,7 +28975,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="24.5" x14ac:dyDescent="0.75">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -29016,7 +29010,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" ht="24.5" x14ac:dyDescent="0.75">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -29158,7 +29152,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:15" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
@@ -29582,14 +29576,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -30285,7 +30276,7 @@
       <c r="G17" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="73" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -30359,7 +30350,7 @@
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
     </row>
-    <row r="19" spans="1:22" s="13" customFormat="1" ht="61.25" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" s="13" customFormat="1" ht="73.5" x14ac:dyDescent="0.75">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -30627,28 +30618,28 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="74">
+      <c r="D25" s="78">
         <v>21</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="74" t="s">
         <v>1453</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="74" t="s">
         <v>1472</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="74" t="s">
         <v>1473</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J25" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L25" s="71" t="s">
@@ -30669,31 +30660,31 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="74">
+      <c r="D26" s="78">
         <v>22</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="74" t="s">
         <v>1456</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="74" t="s">
         <v>1474</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="74" t="s">
         <v>1475</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="75" t="s">
         <v>1451</v>
       </c>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="72" t="s">
         <v>1511</v>
       </c>
       <c r="M26" s="6"/>
@@ -30711,31 +30702,31 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="74">
+      <c r="D27" s="78">
         <v>23</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="73" t="s">
         <v>696</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="73" t="s">
         <v>697</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="71" t="s">
         <v>1250</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="72" t="s">
         <v>1004</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -30755,31 +30746,31 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="74">
+      <c r="D28" s="78">
         <v>24</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="73" t="s">
         <v>607</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="73" t="s">
         <v>698</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="73" t="s">
         <v>698</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="71" t="s">
         <v>1251</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="72" t="s">
         <v>701</v>
       </c>
       <c r="M28" s="6" t="s">
@@ -30799,31 +30790,31 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="74">
+      <c r="D29" s="78">
         <v>25</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="73" t="s">
         <v>608</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="73" t="s">
         <v>699</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="73" t="s">
         <v>699</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="71" t="s">
         <v>1252</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="72" t="s">
         <v>702</v>
       </c>
       <c r="M29" s="6" t="s">
@@ -30843,31 +30834,31 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="74">
+      <c r="D30" s="78">
         <v>26</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="71" t="s">
         <v>1253</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="72" t="s">
         <v>703</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -30887,28 +30878,28 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="74">
+      <c r="D31" s="78">
         <v>27</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="74" t="s">
         <v>1459</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="74" t="s">
         <v>1476</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="74" t="s">
         <v>1477</v>
       </c>
-      <c r="H31" s="73" t="s">
+      <c r="H31" s="74" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="73" t="s">
+      <c r="J31" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L31" s="71" t="s">
@@ -30929,28 +30920,28 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="74">
+      <c r="D32" s="78">
         <v>28</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="74" t="s">
         <v>1462</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="74" t="s">
         <v>1478</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="74" t="s">
         <v>1479</v>
       </c>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="74" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="73" t="s">
+      <c r="J32" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="75" t="s">
         <v>1451</v>
       </c>
       <c r="L32" s="71" t="s">
@@ -30971,7 +30962,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="74">
+      <c r="D33" s="78">
         <v>29</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -31011,7 +31002,7 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="74">
+      <c r="D34" s="78">
         <v>30</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -31055,7 +31046,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="74">
+      <c r="D35" s="78">
         <v>31</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -31095,7 +31086,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="74">
+      <c r="D36" s="78">
         <v>32</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -31139,7 +31130,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="74">
+      <c r="D37" s="78">
         <v>33</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -31179,7 +31170,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="74">
+      <c r="D38" s="78">
         <v>34</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -31219,7 +31210,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="74">
+      <c r="D39" s="78">
         <v>35</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -31261,7 +31252,7 @@
       <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="74">
+      <c r="D40" s="78">
         <v>36</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -31303,7 +31294,7 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="74">
+      <c r="D41" s="78">
         <v>37</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -31345,7 +31336,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="74">
+      <c r="D42" s="78">
         <v>38</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -31387,7 +31378,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="74">
+      <c r="D43" s="78">
         <v>39</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -31431,7 +31422,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="2"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="74">
+      <c r="D44" s="78">
         <v>40</v>
       </c>
       <c r="E44" s="58" t="s">
@@ -31471,7 +31462,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="74">
+      <c r="D45" s="78">
         <v>41</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -31515,7 +31506,7 @@
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="74">
+      <c r="D46" s="78">
         <v>42</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -31559,7 +31550,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="74">
+      <c r="D47" s="78">
         <v>43</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -31592,7 +31583,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="74">
+      <c r="D48" s="78">
         <v>44</v>
       </c>
       <c r="E48" s="21" t="s">
@@ -31627,7 +31618,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="74">
+      <c r="D49" s="78">
         <v>45</v>
       </c>
       <c r="E49" s="21" t="s">
@@ -31662,7 +31653,7 @@
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="74">
+      <c r="D50" s="78">
         <v>46</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -31706,7 +31697,7 @@
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="74">
+      <c r="D51" s="78">
         <v>47</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -31750,7 +31741,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="74">
+      <c r="D52" s="78">
         <v>48</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -31790,28 +31781,28 @@
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="74">
+      <c r="D53" s="78">
         <v>49</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E53" s="72" t="s">
         <v>1480</v>
       </c>
-      <c r="F53" s="75" t="s">
+      <c r="F53" s="72" t="s">
         <v>1481</v>
       </c>
-      <c r="G53" s="75" t="s">
+      <c r="G53" s="72" t="s">
         <v>1482</v>
       </c>
-      <c r="H53" s="75" t="s">
+      <c r="H53" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="75" t="s">
+      <c r="J53" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="72" t="s">
+      <c r="K53" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L53" s="71" t="s">
@@ -31832,7 +31823,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="74">
+      <c r="D54" s="78">
         <v>50</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -31872,7 +31863,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="74">
+      <c r="D55" s="78">
         <v>51</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -31914,7 +31905,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="74">
+      <c r="D56" s="78">
         <v>52</v>
       </c>
       <c r="E56" s="21" t="s">
@@ -31954,7 +31945,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="74">
+      <c r="D57" s="78">
         <v>53</v>
       </c>
       <c r="E57" s="21" t="s">
@@ -31994,7 +31985,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="74">
+      <c r="D58" s="78">
         <v>54</v>
       </c>
       <c r="E58" s="21" t="s">
@@ -32038,7 +32029,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="74">
+      <c r="D59" s="78">
         <v>55</v>
       </c>
       <c r="E59" s="21" t="s">
@@ -32339,7 +32330,7 @@
     <col min="13" max="13" width="41.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -32933,13 +32924,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -33033,7 +33021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="24.5" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.65">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -33307,7 +33295,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
@@ -33417,13 +33405,13 @@
       <c r="D14" s="30">
         <v>10</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="74" t="s">
         <v>1489</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="74" t="s">
         <v>1490</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="74" t="s">
         <v>1491</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -33452,13 +33440,13 @@
       <c r="D15" s="30">
         <v>11</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="74" t="s">
         <v>1492</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="74" t="s">
         <v>1493</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="74" t="s">
         <v>1493</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -33480,7 +33468,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:13" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -33880,8 +33868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -33901,7 +33889,7 @@
     <col min="13" max="13" width="50.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="69" t="s">
         <v>41</v>
       </c>
@@ -34385,7 +34373,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -34566,7 +34554,7 @@
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -35304,7 +35292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" ht="25" x14ac:dyDescent="0.75">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -35337,7 +35325,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="25" x14ac:dyDescent="0.75">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -35613,7 +35601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -35630,7 +35618,7 @@
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -35877,7 +35865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -36008,7 +35996,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -36532,7 +36520,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -36698,7 +36686,7 @@
     <col min="14" max="16384" width="5.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="24.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="36.75" x14ac:dyDescent="0.65">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
@@ -36879,7 +36867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.5" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:13" ht="36.75" x14ac:dyDescent="0.65">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -37263,7 +37251,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" ht="25" x14ac:dyDescent="0.75">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -37558,7 +37546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A19" s="21"/>
       <c r="B19" s="32"/>
       <c r="C19" s="21"/>
@@ -37623,7 +37611,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -38000,14 +37988,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -38026,7 +38011,7 @@
     <col min="12" max="13" width="65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -38442,7 +38427,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:13" ht="25" x14ac:dyDescent="0.75">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -38879,27 +38864,27 @@
       <c r="D26" s="71">
         <v>18</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="72" t="s">
         <v>1098</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="72" t="s">
         <v>802</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="72" t="s">
         <v>785</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="72" t="s">
         <v>223</v>
       </c>
     </row>
@@ -39099,7 +39084,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="25" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -39479,14 +39464,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -39817,7 +39799,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" ht="25" x14ac:dyDescent="0.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -39918,7 +39900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -39953,7 +39935,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:13" ht="74" x14ac:dyDescent="0.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -40113,62 +40095,62 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25" x14ac:dyDescent="0.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="20">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74">
         <v>15</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21" t="s">
+      <c r="J19" s="74"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71" t="s">
         <v>1186</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="71" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="73">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74">
         <v>16</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="74" t="s">
         <v>1450</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="74" t="s">
         <v>1501</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="74" t="s">
         <v>1515</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L20" s="71" t="s">
@@ -40179,45 +40161,45 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="71.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="73">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74">
         <v>17</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="74" t="s">
         <v>1021</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="74" t="s">
         <v>1022</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="74" t="s">
         <v>1514</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="75" t="s">
         <v>1451</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="72" t="s">
         <v>1513</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="71" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="86.25" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" ht="98.5" x14ac:dyDescent="0.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="73">
+      <c r="D22" s="74">
         <v>18</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -40248,7 +40230,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="73">
+      <c r="D23" s="74">
         <v>19</v>
       </c>
       <c r="E23" s="21" t="s">
@@ -40281,7 +40263,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="73">
+      <c r="D24" s="74">
         <v>20</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -40314,7 +40296,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="73">
+      <c r="D25" s="74">
         <v>21</v>
       </c>
       <c r="E25" s="21" t="s">
@@ -40347,7 +40329,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="73">
+      <c r="D26" s="74">
         <v>22</v>
       </c>
       <c r="E26" s="21" t="s">
@@ -40380,7 +40362,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="73">
+      <c r="D27" s="74">
         <v>23</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -40415,7 +40397,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="73">
+      <c r="D28" s="74">
         <v>24</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -40450,7 +40432,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="73">
+      <c r="D29" s="74">
         <v>25</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -40485,7 +40467,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="73">
+      <c r="D30" s="74">
         <v>26</v>
       </c>
       <c r="E30" s="61" t="s">
@@ -40520,7 +40502,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="73">
+      <c r="D31" s="74">
         <v>27</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -40555,7 +40537,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="73">
+      <c r="D32" s="74">
         <v>28</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -40590,28 +40572,28 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="73">
+      <c r="D33" s="74">
         <v>29</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="74" t="s">
         <v>1453</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="74" t="s">
         <v>1454</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="74" t="s">
         <v>1455</v>
       </c>
-      <c r="H33" s="73" t="s">
+      <c r="H33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L33" s="71" t="s">
@@ -40621,35 +40603,35 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="98.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:14" ht="110.75" x14ac:dyDescent="0.75">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="73">
+      <c r="D34" s="74">
         <v>30</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="74" t="s">
         <v>1456</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="74" t="s">
         <v>1457</v>
       </c>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="74" t="s">
         <v>1458</v>
       </c>
-      <c r="H34" s="73" t="s">
+      <c r="H34" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="75" t="s">
         <v>1451</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="72" t="s">
         <v>1511</v>
       </c>
       <c r="M34" s="71" t="s">
@@ -40659,8 +40641,8 @@
     <row r="35" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="73">
+      <c r="C35" s="73"/>
+      <c r="D35" s="74">
         <v>31</v>
       </c>
       <c r="E35" s="20" t="s">
@@ -40691,8 +40673,8 @@
     <row r="36" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="73">
+      <c r="C36" s="73"/>
+      <c r="D36" s="74">
         <v>32</v>
       </c>
       <c r="E36" s="20" t="s">
@@ -40719,11 +40701,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="61.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:14" ht="74" x14ac:dyDescent="0.75">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="73">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74">
         <v>33</v>
       </c>
       <c r="E37" s="20" t="s">
@@ -40757,8 +40739,8 @@
     <row r="38" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="73">
+      <c r="C38" s="73"/>
+      <c r="D38" s="74">
         <v>34</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -40792,8 +40774,8 @@
     <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="73">
+      <c r="C39" s="73"/>
+      <c r="D39" s="74">
         <v>35</v>
       </c>
       <c r="E39" s="20" t="s">
@@ -40827,8 +40809,8 @@
     <row r="40" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="73">
+      <c r="C40" s="73"/>
+      <c r="D40" s="74">
         <v>36</v>
       </c>
       <c r="E40" s="20" t="s">
@@ -40862,29 +40844,29 @@
     <row r="41" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="73">
+      <c r="C41" s="73"/>
+      <c r="D41" s="74">
         <v>37</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="74" t="s">
         <v>1459</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="74" t="s">
         <v>1460</v>
       </c>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="74" t="s">
         <v>1461</v>
       </c>
-      <c r="H41" s="73" t="s">
+      <c r="H41" s="74" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="72" t="s">
+      <c r="K41" s="75" t="s">
         <v>1452</v>
       </c>
       <c r="L41" s="71" t="s">
@@ -40895,29 +40877,29 @@
     <row r="42" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="73">
+      <c r="C42" s="73"/>
+      <c r="D42" s="74">
         <v>38</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="74" t="s">
         <v>1462</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="74" t="s">
         <v>1463</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="76" t="s">
         <v>1516</v>
       </c>
-      <c r="H42" s="73" t="s">
+      <c r="H42" s="74" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="73" t="s">
+      <c r="J42" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="K42" s="75" t="s">
         <v>1451</v>
       </c>
       <c r="L42" s="71" t="s">
@@ -40928,8 +40910,8 @@
     <row r="43" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="73">
+      <c r="C43" s="73"/>
+      <c r="D43" s="74">
         <v>39</v>
       </c>
       <c r="E43" s="20" t="s">
@@ -40956,11 +40938,11 @@
         <v>975</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:14" ht="61.75" x14ac:dyDescent="0.75">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="73">
+      <c r="C44" s="73"/>
+      <c r="D44" s="74">
         <v>40</v>
       </c>
       <c r="E44" s="20" t="s">
@@ -40994,8 +40976,8 @@
     <row r="45" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="73">
+      <c r="C45" s="73"/>
+      <c r="D45" s="74">
         <v>41</v>
       </c>
       <c r="E45" s="20" t="s">
@@ -41022,11 +41004,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="73">
+      <c r="D46" s="74">
         <v>42</v>
       </c>
       <c r="E46" s="20" t="s">
@@ -41057,11 +41039,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="86.25" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:14" ht="98.5" x14ac:dyDescent="0.75">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="73">
+      <c r="D47" s="74">
         <v>43</v>
       </c>
       <c r="E47" s="21" t="s">
@@ -41097,7 +41079,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="73">
+      <c r="D48" s="74">
         <v>44</v>
       </c>
       <c r="E48" s="21" t="s">
@@ -41129,11 +41111,11 @@
       </c>
       <c r="N48" s="44"/>
     </row>
-    <row r="49" spans="1:14" ht="86.25" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:14" ht="98.5" x14ac:dyDescent="0.75">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="73">
+      <c r="D49" s="74">
         <v>45</v>
       </c>
       <c r="E49" s="20" t="s">
@@ -41169,7 +41151,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="73">
+      <c r="D50" s="74">
         <v>46</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -41205,7 +41187,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="73">
+      <c r="D51" s="74">
         <v>47</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -41234,7 +41216,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="73">
+      <c r="D52" s="74">
         <v>48</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -41269,7 +41251,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="73">
+      <c r="D53" s="74">
         <v>49</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -41300,7 +41282,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="73">
+      <c r="D54" s="74">
         <v>50</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -41331,7 +41313,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="73">
+      <c r="D55" s="74">
         <v>51</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -41364,7 +41346,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="73">
+      <c r="D56" s="74">
         <v>52</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -41397,7 +41379,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="73">
+      <c r="D57" s="74">
         <v>53</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -41432,7 +41414,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="2"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="73">
+      <c r="D58" s="74">
         <v>54</v>
       </c>
       <c r="E58" s="58" t="s">
@@ -41463,7 +41445,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="73">
+      <c r="D59" s="74">
         <v>55</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -41496,7 +41478,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="73">
+      <c r="D60" s="74">
         <v>56</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -41527,7 +41509,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="73">
+      <c r="D61" s="74">
         <v>57</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -41554,11 +41536,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="73">
+      <c r="D62" s="74">
         <v>58</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -41587,11 +41569,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:14" ht="25" x14ac:dyDescent="0.75">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="73">
+      <c r="D63" s="74">
         <v>59</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -41618,11 +41600,11 @@
       </c>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:14" s="28" customFormat="1" ht="25" x14ac:dyDescent="0.75">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="73">
+      <c r="D64" s="74">
         <v>60</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -41655,7 +41637,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="73">
+      <c r="D65" s="74">
         <v>61</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -41690,7 +41672,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="73">
+      <c r="D66" s="74">
         <v>62</v>
       </c>
       <c r="E66" s="29" t="s">
@@ -41721,11 +41703,11 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="73">
+      <c r="D67" s="74">
         <v>63</v>
       </c>
       <c r="E67" s="21" t="s">
@@ -41756,7 +41738,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="73">
+      <c r="D68" s="74">
         <v>64</v>
       </c>
       <c r="E68" s="21" t="s">
@@ -41787,7 +41769,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="73">
+      <c r="D69" s="74">
         <v>65</v>
       </c>
       <c r="E69" s="21" t="s">
@@ -41822,7 +41804,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="73">
+      <c r="D70" s="74">
         <v>66</v>
       </c>
       <c r="E70" s="21" t="s">
@@ -42949,7 +42931,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="37.25" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:13" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -43059,27 +43041,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -43251,31 +43212,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43293,6 +43251,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0b220ce-5735-4468-91df-05cae5ff1fdc}" enabled="0" method="" siteId="{e0b220ce-5735-4468-91df-05cae5ff1fdc}" removed="1"/>
